--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23863" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24703" uniqueCount="456">
   <si>
     <t>jira</t>
   </si>
@@ -1417,6 +1417,15 @@
   </si>
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1433,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="732" x14ac:knownFonts="1">
+  <fonts count="756" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6067,8 +6076,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1264">
+  <fills count="1306">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13227,8 +13388,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1203">
+  <borders count="1243">
     <border>
       <left/>
       <right/>
@@ -13265,6 +13664,394 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24913,7 +25700,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="757">
+  <cellXfs count="781">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27166,40 +27953,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1245" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1245" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1248" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1248" fontId="722" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="724" fillId="1251" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="725" fillId="1254" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="726" fillId="1257" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="1257" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="729" fillId="1263" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1251" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1254" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1257" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1257" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1263" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1266" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="734" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="735" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1272" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1275" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1278" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1278" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1287" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1293" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1296" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1299" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1299" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1305" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27641,7 +28500,7 @@
         <v>202</v>
       </c>
       <c r="M2" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="N2" t="s">
         <v>259</v>
@@ -28605,7 +29464,7 @@
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="S52" t="s">
         <v>136</v>
@@ -28613,7 +29472,7 @@
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="S53" t="s">
         <v>137</v>
@@ -28621,7 +29480,7 @@
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="S54" t="s">
         <v>138</v>
@@ -28629,7 +29488,7 @@
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="S55" t="s">
         <v>139</v>
@@ -28637,7 +29496,7 @@
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S56" t="s">
         <v>140</v>
@@ -28645,7 +29504,7 @@
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="S57" t="s">
         <v>141</v>
@@ -28653,7 +29512,7 @@
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="S58" t="s">
         <v>220</v>
@@ -28661,7 +29520,7 @@
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="S59" t="s">
         <v>430</v>
@@ -28669,7 +29528,7 @@
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S60" t="s">
         <v>142</v>
@@ -28677,7 +29536,7 @@
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="S61" t="s">
         <v>143</v>
@@ -28685,7 +29544,7 @@
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="S62" t="s">
         <v>144</v>
@@ -28693,7 +29552,7 @@
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="S63" t="s">
         <v>145</v>
@@ -28701,7 +29560,7 @@
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="S64" t="s">
         <v>203</v>
@@ -28709,7 +29568,7 @@
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="S65" t="s">
         <v>204</v>
@@ -28717,7 +29576,7 @@
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="S66" t="s">
         <v>146</v>
@@ -28725,7 +29584,7 @@
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="S67" t="s">
         <v>147</v>
@@ -28733,7 +29592,7 @@
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="S68" t="s">
         <v>148</v>
@@ -28741,7 +29600,7 @@
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="S69" t="s">
         <v>149</v>
@@ -28749,7 +29608,7 @@
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="S70" t="s">
         <v>150</v>
@@ -28757,7 +29616,7 @@
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="S71" t="s">
         <v>205</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24703" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25543" uniqueCount="456">
   <si>
     <t>jira</t>
   </si>
@@ -1433,7 +1433,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="756" x14ac:knownFonts="1">
+  <fonts count="780" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6228,8 +6228,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1306">
+  <fills count="1348">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13626,8 +13778,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1243">
+  <borders count="1283">
     <border>
       <left/>
       <right/>
@@ -13664,6 +14054,394 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25700,7 +26478,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="781">
+  <cellXfs count="805">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28025,40 +28803,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1287" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1287" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="745" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1290" fontId="746" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="748" fillId="1293" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="749" fillId="1296" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="750" fillId="1299" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="751" fillId="1299" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="752" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="753" fillId="1305" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="754" fillId="1302" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1293" fontId="748" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1296" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1299" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1299" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1305" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1308" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="758" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1314" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1317" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1320" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1320" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1329" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1335" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1338" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1341" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1341" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25543" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25964" uniqueCount="458">
   <si>
     <t>jira</t>
   </si>
@@ -1426,6 +1426,12 @@
   </si>
   <si>
     <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1439,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="780" x14ac:knownFonts="1">
+  <fonts count="792" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6380,8 +6386,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1348">
+  <fills count="1369">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14016,8 +14098,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1283">
+  <borders count="1303">
     <border>
       <left/>
       <right/>
@@ -14054,6 +14255,200 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26478,7 +26873,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="805">
+  <cellXfs count="817">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28875,40 +29270,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1329" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1329" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="770" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="772" fillId="1335" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="773" fillId="1338" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="774" fillId="1341" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="775" fillId="1341" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="776" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="777" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1335" fontId="772" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1338" fontId="773" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1341" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1341" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1350" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1356" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1359" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1362" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1362" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29347,7 +29778,7 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>457</v>
       </c>
       <c r="M2" t="s">
         <v>455</v>
@@ -29933,7 +30364,7 @@
         <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>456</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -29956,7 +30387,7 @@
         <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -29973,7 +30404,7 @@
         <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -29990,7 +30421,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
         <v>302</v>
@@ -30007,7 +30438,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>303</v>
@@ -30024,7 +30455,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="E21" t="s">
         <v>304</v>
@@ -30041,7 +30472,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>305</v>
@@ -30055,7 +30486,7 @@
         <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>296</v>
@@ -30066,7 +30497,7 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
@@ -30077,7 +30508,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -30088,7 +30519,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -30099,7 +30530,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -30110,7 +30541,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -30121,7 +30552,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -30132,7 +30563,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -30143,7 +30574,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -30153,6 +30584,9 @@
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>291</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -33,17 +33,18 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25964" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27249" uniqueCount="466">
   <si>
     <t>jira</t>
   </si>
@@ -1432,6 +1433,30 @@
   </si>
   <si>
     <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1464,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="792" x14ac:knownFonts="1">
+  <fonts count="828" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6462,8 +6487,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1369">
+  <fills count="1432">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14217,8 +14470,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1303">
+  <borders count="1363">
     <border>
       <left/>
       <right/>
@@ -14255,6 +14865,588 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26873,7 +28065,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="817">
+  <cellXfs count="853">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29306,40 +30498,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="779" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="1350" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1350" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="782" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="1356" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="1359" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="1362" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="1362" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="788" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="789" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="783" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1356" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1359" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1362" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1362" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="788" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1371" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="794" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1377" fontId="796" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1380" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1383" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1383" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1392" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="806" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1398" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1401" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1404" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1404" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1413" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="1419" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1422" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1425" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1425" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29661,7 +30961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29722,24 +31022,27 @@
         <v>443</v>
       </c>
       <c r="Q1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R1" t="s">
         <v>396</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>439</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -29793,24 +31096,27 @@
         <v>444</v>
       </c>
       <c r="Q2" t="s">
+        <v>460</v>
+      </c>
+      <c r="R2" t="s">
         <v>422</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>440</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -29861,24 +31167,27 @@
         <v>445</v>
       </c>
       <c r="Q3" t="s">
+        <v>461</v>
+      </c>
+      <c r="R3" t="s">
         <v>423</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>441</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>404</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -29926,24 +31235,27 @@
         <v>446</v>
       </c>
       <c r="Q4" t="s">
+        <v>464</v>
+      </c>
+      <c r="R4" t="s">
         <v>398</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>442</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>391</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>189</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -29985,21 +31297,24 @@
         <v>447</v>
       </c>
       <c r="Q5" t="s">
+        <v>465</v>
+      </c>
+      <c r="R5" t="s">
         <v>399</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>392</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>190</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -30038,21 +31353,24 @@
         <v>448</v>
       </c>
       <c r="Q6" t="s">
+        <v>463</v>
+      </c>
+      <c r="R6" t="s">
         <v>401</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>191</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -30084,22 +31402,25 @@
       <c r="N7" t="s">
         <v>250</v>
       </c>
+      <c r="O7" t="s">
+        <v>459</v>
+      </c>
       <c r="P7" t="s">
         <v>449</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>400</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>192</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -30134,19 +31455,19 @@
       <c r="P8" t="s">
         <v>450</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>402</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>193</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -30178,16 +31499,16 @@
       <c r="P9" t="s">
         <v>451</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>403</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>215</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>194</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -30216,13 +31537,13 @@
       <c r="P10" t="s">
         <v>452</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>263</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>195</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -30248,13 +31569,13 @@
       <c r="N11" t="s">
         <v>254</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>265</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -30277,10 +31598,10 @@
       <c r="N12" t="s">
         <v>255</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -30303,10 +31624,10 @@
       <c r="N13" t="s">
         <v>260</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>338</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -30329,10 +31650,10 @@
       <c r="N14" t="s">
         <v>256</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>198</v>
       </c>
     </row>
@@ -30352,10 +31673,10 @@
       <c r="N15" t="s">
         <v>257</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -30375,16 +31696,16 @@
       <c r="N16" t="s">
         <v>258</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -30395,13 +31716,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -30412,13 +31733,13 @@
       <c r="I18" t="s">
         <v>433</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
         <v>262</v>
@@ -30429,13 +31750,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -30446,13 +31767,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>333</v>
@@ -30463,13 +31784,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -30477,13 +31798,13 @@
       <c r="E22" t="s">
         <v>305</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -30491,18 +31812,21 @@
       <c r="E23" t="s">
         <v>296</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
       <c r="C24" t="s">
         <v>232</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -30513,7 +31837,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -30524,7 +31848,7 @@
       <c r="E26" t="s">
         <v>288</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -30535,7 +31859,7 @@
       <c r="E27" t="s">
         <v>272</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>339</v>
       </c>
     </row>
@@ -30546,7 +31870,7 @@
       <c r="E28" t="s">
         <v>289</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -30557,7 +31881,7 @@
       <c r="E29" t="s">
         <v>290</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -30568,7 +31892,7 @@
       <c r="E30" t="s">
         <v>222</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -30579,7 +31903,7 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -30590,7 +31914,7 @@
       <c r="E32" t="s">
         <v>291</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -30598,7 +31922,7 @@
       <c r="E33" t="s">
         <v>266</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -30606,7 +31930,7 @@
       <c r="E34" t="s">
         <v>342</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30614,7 +31938,7 @@
       <c r="E35" t="s">
         <v>315</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -30622,7 +31946,7 @@
       <c r="E36" t="s">
         <v>267</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>351</v>
       </c>
     </row>
@@ -30630,7 +31954,7 @@
       <c r="E37" t="s">
         <v>316</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>434</v>
       </c>
     </row>
@@ -30638,7 +31962,7 @@
       <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -30646,7 +31970,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30654,7 +31978,7 @@
       <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30662,7 +31986,7 @@
       <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -30670,7 +31994,7 @@
       <c r="E42" t="s">
         <v>306</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -30678,7 +32002,7 @@
       <c r="E43" t="s">
         <v>307</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30686,7 +32010,7 @@
       <c r="E44" t="s">
         <v>356</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -30694,7 +32018,7 @@
       <c r="E45" t="s">
         <v>355</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -30702,7 +32026,7 @@
       <c r="E46" t="s">
         <v>217</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -30710,7 +32034,7 @@
       <c r="E47" t="s">
         <v>332</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30718,7 +32042,7 @@
       <c r="E48" t="s">
         <v>352</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30726,7 +32050,7 @@
       <c r="E49" t="s">
         <v>409</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30734,7 +32058,7 @@
       <c r="E50" t="s">
         <v>309</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>359</v>
       </c>
     </row>
@@ -30742,7 +32066,7 @@
       <c r="E51" t="s">
         <v>393</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -30750,7 +32074,7 @@
       <c r="E52" t="s">
         <v>343</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -30758,7 +32082,7 @@
       <c r="E53" t="s">
         <v>274</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -30766,7 +32090,7 @@
       <c r="E54" t="s">
         <v>298</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -30774,7 +32098,7 @@
       <c r="E55" t="s">
         <v>299</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -30782,7 +32106,7 @@
       <c r="E56" t="s">
         <v>300</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -30790,7 +32114,7 @@
       <c r="E57" t="s">
         <v>310</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -30798,7 +32122,7 @@
       <c r="E58" t="s">
         <v>320</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -30806,7 +32130,7 @@
       <c r="E59" t="s">
         <v>350</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>430</v>
       </c>
     </row>
@@ -30814,7 +32138,7 @@
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -30822,7 +32146,7 @@
       <c r="E61" t="s">
         <v>318</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -30830,7 +32154,7 @@
       <c r="E62" t="s">
         <v>410</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -30838,7 +32162,7 @@
       <c r="E63" t="s">
         <v>411</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -30846,7 +32170,7 @@
       <c r="E64" t="s">
         <v>358</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>203</v>
       </c>
     </row>
@@ -30854,7 +32178,7 @@
       <c r="E65" t="s">
         <v>321</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>204</v>
       </c>
     </row>
@@ -30862,7 +32186,7 @@
       <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -30870,7 +32194,7 @@
       <c r="E67" t="s">
         <v>390</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30878,7 +32202,7 @@
       <c r="E68" t="s">
         <v>322</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -30886,7 +32210,7 @@
       <c r="E69" t="s">
         <v>453</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -30894,7 +32218,7 @@
       <c r="E70" t="s">
         <v>312</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -30902,7 +32226,7 @@
       <c r="E71" t="s">
         <v>454</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>205</v>
       </c>
     </row>
@@ -30910,7 +32234,7 @@
       <c r="E72" t="s">
         <v>268</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -30918,7 +32242,7 @@
       <c r="E73" t="s">
         <v>357</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>207</v>
       </c>
     </row>
@@ -30926,7 +32250,7 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>208</v>
       </c>
     </row>
@@ -30934,7 +32258,7 @@
       <c r="E75" t="s">
         <v>292</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>221</v>
       </c>
     </row>
@@ -30942,7 +32266,7 @@
       <c r="E76" t="s">
         <v>297</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -30950,7 +32274,7 @@
       <c r="E77" t="s">
         <v>344</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -30958,7 +32282,7 @@
       <c r="E78" t="s">
         <v>276</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -30966,7 +32290,7 @@
       <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -30974,7 +32298,7 @@
       <c r="E80" t="s">
         <v>293</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>211</v>
       </c>
     </row>
@@ -30982,7 +32306,7 @@
       <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>212</v>
       </c>
     </row>
@@ -30990,7 +32314,7 @@
       <c r="E82" t="s">
         <v>277</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>213</v>
       </c>
     </row>
@@ -30998,7 +32322,7 @@
       <c r="E83" t="s">
         <v>294</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>229</v>
       </c>
     </row>
@@ -31006,7 +32330,7 @@
       <c r="E84" t="s">
         <v>278</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>214</v>
       </c>
     </row>
@@ -31014,7 +32338,7 @@
       <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -31022,7 +32346,7 @@
       <c r="E86" t="s">
         <v>313</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>424</v>
       </c>
     </row>
@@ -31030,7 +32354,7 @@
       <c r="E87" t="s">
         <v>319</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -31038,7 +32362,7 @@
       <c r="E88" t="s">
         <v>301</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -31046,7 +32370,7 @@
       <c r="E89" t="s">
         <v>353</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -31054,7 +32378,7 @@
       <c r="E90" t="s">
         <v>283</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -31062,92 +32386,92 @@
       <c r="E91" t="s">
         <v>284</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -44,7 +44,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27249" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27678" uniqueCount="468">
   <si>
     <t>jira</t>
   </si>
@@ -1457,6 +1457,12 @@
   </si>
   <si>
     <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1470,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="828" x14ac:knownFonts="1">
+  <fonts count="843" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6715,8 +6721,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1432">
+  <fills count="1459">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14827,8 +14927,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1363">
+  <borders count="1391">
     <border>
       <left/>
       <right/>
@@ -27924,6 +28177,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28065,7 +28600,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="853">
+  <cellXfs count="868">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30606,40 +31141,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="1413" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1413" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="817" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1416" fontId="818" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="1419" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="821" fillId="1422" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="1425" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1425" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="825" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1419" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1422" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1425" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1425" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1428" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1428" fontId="826" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1437" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1440" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1443" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1446" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1449" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1452" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1452" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31096,7 +31676,7 @@
         <v>444</v>
       </c>
       <c r="Q2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="R2" t="s">
         <v>422</v>
@@ -31352,9 +31932,6 @@
       <c r="P6" t="s">
         <v>448</v>
       </c>
-      <c r="Q6" t="s">
-        <v>463</v>
-      </c>
       <c r="R6" t="s">
         <v>401</v>
       </c>
@@ -31832,7 +32409,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -31843,7 +32420,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -31854,7 +32431,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -31865,7 +32442,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -31876,7 +32453,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -31887,7 +32464,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -31898,7 +32475,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -31909,7 +32486,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -31919,6 +32496,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" t="s">
         <v>266</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -34,17 +34,19 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27678" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28550" uniqueCount="476">
   <si>
     <t>jira</t>
   </si>
@@ -1463,6 +1465,30 @@
   </si>
   <si>
     <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1496,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="843" x14ac:knownFonts="1">
+  <fonts count="873" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6815,8 +6841,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1459">
+  <fills count="1513">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15080,8 +15294,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1391">
+  <borders count="1447">
     <border>
       <left/>
       <right/>
@@ -28177,6 +28697,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -28600,7 +29684,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="868">
+  <cellXfs count="898">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31177,49 +32261,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="827" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1434" fontId="828" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="829" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="1437" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1437" fontId="830" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1440" borderId="1378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1440" fontId="831" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="832" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1443" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1443" fontId="833" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="1446" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="836" fillId="1449" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="1452" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="1452" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="841" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1446" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1449" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1452" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1452" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1458" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1455" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1461" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1464" fontId="845" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1467" fontId="846" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="847" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1470" fontId="848" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1473" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1476" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1479" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1479" fontId="853" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1488" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1491" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1494" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1500" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1503" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="1506" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1506" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31541,7 +32715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31602,27 +32776,33 @@
         <v>443</v>
       </c>
       <c r="Q1" t="s">
+        <v>468</v>
+      </c>
+      <c r="R1" t="s">
         <v>458</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>439</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -31676,27 +32856,33 @@
         <v>444</v>
       </c>
       <c r="Q2" t="s">
+        <v>469</v>
+      </c>
+      <c r="R2" t="s">
         <v>467</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>422</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>440</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -31746,28 +32932,31 @@
       <c r="P3" t="s">
         <v>445</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>461</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>423</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>441</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>181</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>404</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -31814,28 +33003,31 @@
       <c r="P4" t="s">
         <v>446</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>464</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>398</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>442</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>391</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>177</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>189</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -31876,25 +33068,28 @@
       <c r="P5" t="s">
         <v>447</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>465</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>399</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>392</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>183</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>190</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -31932,22 +33127,25 @@
       <c r="P6" t="s">
         <v>448</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>179</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>191</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -31985,19 +33183,22 @@
       <c r="P7" t="s">
         <v>449</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>400</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>192</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z7" t="s">
         <v>239</v>
       </c>
     </row>
@@ -32032,19 +33233,19 @@
       <c r="P8" t="s">
         <v>450</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>402</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>193</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -32076,16 +33277,16 @@
       <c r="P9" t="s">
         <v>451</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>403</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>215</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>194</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -32114,13 +33315,13 @@
       <c r="P10" t="s">
         <v>452</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>263</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>195</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>242</v>
       </c>
     </row>
@@ -32146,13 +33347,13 @@
       <c r="N11" t="s">
         <v>254</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>265</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>243</v>
       </c>
     </row>
@@ -32175,10 +33376,10 @@
       <c r="N12" t="s">
         <v>255</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>105</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -32201,10 +33402,10 @@
       <c r="N13" t="s">
         <v>260</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>338</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -32227,10 +33428,10 @@
       <c r="N14" t="s">
         <v>256</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>106</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>198</v>
       </c>
     </row>
@@ -32250,10 +33451,10 @@
       <c r="N15" t="s">
         <v>257</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -32273,16 +33474,16 @@
       <c r="N16" t="s">
         <v>258</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -32293,13 +33494,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -32310,13 +33511,13 @@
       <c r="I18" t="s">
         <v>433</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s">
         <v>262</v>
@@ -32327,13 +33528,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -32344,13 +33545,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>333</v>
@@ -32361,13 +33562,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -32375,13 +33576,13 @@
       <c r="E22" t="s">
         <v>305</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -32389,13 +33590,13 @@
       <c r="E23" t="s">
         <v>296</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>232</v>
@@ -32403,29 +33604,35 @@
       <c r="E24" t="s">
         <v>285</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>470</v>
+      </c>
       <c r="C25" t="s">
         <v>466</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -32436,7 +33643,7 @@
       <c r="E27" t="s">
         <v>272</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>339</v>
       </c>
     </row>
@@ -32447,7 +33654,7 @@
       <c r="E28" t="s">
         <v>289</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -32458,7 +33665,7 @@
       <c r="E29" t="s">
         <v>290</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -32469,7 +33676,7 @@
       <c r="E30" t="s">
         <v>222</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -32480,7 +33687,7 @@
       <c r="E31" t="s">
         <v>281</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -32491,7 +33698,7 @@
       <c r="E32" t="s">
         <v>291</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -32502,7 +33709,7 @@
       <c r="E33" t="s">
         <v>266</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32510,7 +33717,7 @@
       <c r="E34" t="s">
         <v>342</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32518,7 +33725,7 @@
       <c r="E35" t="s">
         <v>315</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32526,7 +33733,7 @@
       <c r="E36" t="s">
         <v>267</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>351</v>
       </c>
     </row>
@@ -32534,7 +33741,7 @@
       <c r="E37" t="s">
         <v>316</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>434</v>
       </c>
     </row>
@@ -32542,7 +33749,7 @@
       <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32550,7 +33757,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32558,7 +33765,7 @@
       <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32566,7 +33773,7 @@
       <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32574,7 +33781,7 @@
       <c r="E42" t="s">
         <v>306</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32582,7 +33789,7 @@
       <c r="E43" t="s">
         <v>307</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32590,7 +33797,7 @@
       <c r="E44" t="s">
         <v>356</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -32598,7 +33805,7 @@
       <c r="E45" t="s">
         <v>355</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -32606,7 +33813,7 @@
       <c r="E46" t="s">
         <v>217</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32614,7 +33821,7 @@
       <c r="E47" t="s">
         <v>332</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32622,7 +33829,7 @@
       <c r="E48" t="s">
         <v>352</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32630,7 +33837,7 @@
       <c r="E49" t="s">
         <v>409</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32638,7 +33845,7 @@
       <c r="E50" t="s">
         <v>309</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>359</v>
       </c>
     </row>
@@ -32646,7 +33853,7 @@
       <c r="E51" t="s">
         <v>393</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32654,7 +33861,7 @@
       <c r="E52" t="s">
         <v>343</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32662,7 +33869,7 @@
       <c r="E53" t="s">
         <v>274</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32670,7 +33877,7 @@
       <c r="E54" t="s">
         <v>298</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32678,7 +33885,7 @@
       <c r="E55" t="s">
         <v>299</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -32686,7 +33893,7 @@
       <c r="E56" t="s">
         <v>300</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -32694,7 +33901,7 @@
       <c r="E57" t="s">
         <v>310</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -32702,7 +33909,7 @@
       <c r="E58" t="s">
         <v>320</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>220</v>
       </c>
     </row>
@@ -32710,7 +33917,7 @@
       <c r="E59" t="s">
         <v>350</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>430</v>
       </c>
     </row>
@@ -32718,7 +33925,7 @@
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -32726,7 +33933,7 @@
       <c r="E61" t="s">
         <v>318</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -32734,7 +33941,7 @@
       <c r="E62" t="s">
         <v>410</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -32742,7 +33949,7 @@
       <c r="E63" t="s">
         <v>411</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -32750,7 +33957,7 @@
       <c r="E64" t="s">
         <v>358</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32758,7 +33965,7 @@
       <c r="E65" t="s">
         <v>321</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>204</v>
       </c>
     </row>
@@ -32766,7 +33973,7 @@
       <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -32774,7 +33981,7 @@
       <c r="E67" t="s">
         <v>390</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -32782,7 +33989,7 @@
       <c r="E68" t="s">
         <v>322</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -32790,7 +33997,7 @@
       <c r="E69" t="s">
         <v>453</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -32798,7 +34005,7 @@
       <c r="E70" t="s">
         <v>312</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -32806,7 +34013,7 @@
       <c r="E71" t="s">
         <v>454</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>205</v>
       </c>
     </row>
@@ -32814,7 +34021,7 @@
       <c r="E72" t="s">
         <v>268</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -32822,7 +34029,7 @@
       <c r="E73" t="s">
         <v>357</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>207</v>
       </c>
     </row>
@@ -32830,7 +34037,7 @@
       <c r="E74" t="s">
         <v>286</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>208</v>
       </c>
     </row>
@@ -32838,7 +34045,7 @@
       <c r="E75" t="s">
         <v>292</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>221</v>
       </c>
     </row>
@@ -32846,7 +34053,7 @@
       <c r="E76" t="s">
         <v>297</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -32854,7 +34061,7 @@
       <c r="E77" t="s">
         <v>344</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>209</v>
       </c>
     </row>
@@ -32862,7 +34069,7 @@
       <c r="E78" t="s">
         <v>276</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -32870,7 +34077,7 @@
       <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -32878,7 +34085,7 @@
       <c r="E80" t="s">
         <v>293</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>211</v>
       </c>
     </row>
@@ -32886,7 +34093,7 @@
       <c r="E81" t="s">
         <v>282</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>212</v>
       </c>
     </row>
@@ -32894,7 +34101,7 @@
       <c r="E82" t="s">
         <v>277</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>213</v>
       </c>
     </row>
@@ -32902,7 +34109,7 @@
       <c r="E83" t="s">
         <v>294</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>229</v>
       </c>
     </row>
@@ -32910,7 +34117,7 @@
       <c r="E84" t="s">
         <v>278</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32918,7 +34125,7 @@
       <c r="E85" t="s">
         <v>279</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -32926,7 +34133,7 @@
       <c r="E86" t="s">
         <v>313</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>424</v>
       </c>
     </row>
@@ -32934,7 +34141,7 @@
       <c r="E87" t="s">
         <v>319</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -32942,7 +34149,7 @@
       <c r="E88" t="s">
         <v>301</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -32950,7 +34157,7 @@
       <c r="E89" t="s">
         <v>353</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -32958,7 +34165,7 @@
       <c r="E90" t="s">
         <v>283</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -32966,92 +34173,92 @@
       <c r="E91" t="s">
         <v>284</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -20,18 +20,18 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
@@ -46,7 +46,7 @@
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
     <definedName name="sound">'#system'!$R$2:$R$5</definedName>
     <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28550" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30326" uniqueCount="490">
   <si>
     <t>jira</t>
   </si>
@@ -1489,6 +1489,48 @@
   </si>
   <si>
     <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>average(variableName,array)</t>
+  </si>
+  <si>
+    <t>ceiling(variableName)</t>
+  </si>
+  <si>
+    <t>decrement(variableName,amount)</t>
+  </si>
+  <si>
+    <t>floor(variableName)</t>
+  </si>
+  <si>
+    <t>increment(variableName,amount)</t>
+  </si>
+  <si>
+    <t>max(variableName,array)</t>
+  </si>
+  <si>
+    <t>min(variableName,array)</t>
+  </si>
+  <si>
+    <t>round(variableName,closestDigit)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="873" x14ac:knownFonts="1">
+  <fonts count="933" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7029,8 +7071,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1513">
+  <fills count="1621">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15600,8 +16018,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1447">
+  <borders count="1559">
     <border>
       <left/>
       <right/>
@@ -28697,6 +29727,1134 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -29684,7 +31842,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="898">
+  <cellXfs count="958">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32351,49 +34509,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="857" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="1488" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1488" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="859" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="860" fillId="1491" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1491" fontId="860" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="861" fillId="1494" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1494" fontId="861" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="862" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="863" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="863" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="1500" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="866" fillId="1503" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="1506" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="1506" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="870" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1500" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1503" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1506" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1506" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1509" fontId="869" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1509" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1515" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1518" fontId="875" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1521" fontId="876" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="877" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="878" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1527" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1530" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1533" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1533" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="884" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="885" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1536" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1542" fontId="888" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="889" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1545" fontId="890" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1548" fontId="891" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="892" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1551" fontId="893" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1554" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1557" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1560" fontId="897" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1560" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1563" fontId="899" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="900" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1563" fontId="901" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1569" fontId="903" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="904" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1572" fontId="905" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1575" fontId="906" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="907" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1578" fontId="908" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="909" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1581" fontId="910" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1584" fontId="911" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1587" fontId="912" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1587" fontId="913" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1590" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1593" fontId="915" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1590" fontId="916" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="917" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1602" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1611" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1614" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1614" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32838,13 +35176,13 @@
         <v>425</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>477</v>
       </c>
       <c r="L2" t="s">
         <v>457</v>
       </c>
       <c r="M2" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="N2" t="s">
         <v>259</v>
@@ -32880,7 +35218,7 @@
         <v>187</v>
       </c>
       <c r="Y2" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="Z2" t="s">
         <v>234</v>
@@ -32918,10 +35256,10 @@
         <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="N3" t="s">
         <v>246</v>
@@ -32954,7 +35292,7 @@
         <v>404</v>
       </c>
       <c r="Y3" t="s">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="Z3" t="s">
         <v>235</v>
@@ -32989,7 +35327,7 @@
         <v>348</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -33025,7 +35363,7 @@
         <v>189</v>
       </c>
       <c r="Y4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z4" t="s">
         <v>236</v>
@@ -33054,7 +35392,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -33087,7 +35425,7 @@
         <v>190</v>
       </c>
       <c r="Y5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Z5" t="s">
         <v>237</v>
@@ -33113,7 +35451,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
@@ -33143,7 +35481,7 @@
         <v>191</v>
       </c>
       <c r="Y6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Z6" t="s">
         <v>238</v>
@@ -33169,7 +35507,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -33196,7 +35534,7 @@
         <v>192</v>
       </c>
       <c r="Y7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z7" t="s">
         <v>239</v>
@@ -33222,7 +35560,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -33244,6 +35582,9 @@
       </c>
       <c r="X8" t="s">
         <v>193</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>475</v>
       </c>
       <c r="Z8" t="s">
         <v>240</v>
@@ -33266,7 +35607,7 @@
         <v>431</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -33304,10 +35645,10 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>489</v>
       </c>
       <c r="N10" t="s">
         <v>253</v>
@@ -33339,10 +35680,10 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>254</v>
@@ -33370,8 +35711,11 @@
       <c r="I12" t="s">
         <v>84</v>
       </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>255</v>
@@ -33397,7 +35741,7 @@
         <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
         <v>260</v>
@@ -33423,7 +35767,7 @@
         <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>256</v>
@@ -33448,6 +35792,9 @@
       <c r="I15" t="s">
         <v>87</v>
       </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" t="s">
         <v>257</v>
       </c>
@@ -34059,7 +36406,7 @@
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>344</v>
+        <v>476</v>
       </c>
       <c r="U77" t="s">
         <v>209</v>
@@ -34067,7 +36414,7 @@
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="U78" t="s">
         <v>152</v>
@@ -34075,7 +36422,7 @@
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="U79" t="s">
         <v>210</v>
@@ -34083,7 +36430,7 @@
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="U80" t="s">
         <v>211</v>
@@ -34091,7 +36438,7 @@
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="U81" t="s">
         <v>212</v>
@@ -34099,7 +36446,7 @@
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="U82" t="s">
         <v>213</v>
@@ -34107,7 +36454,7 @@
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U83" t="s">
         <v>229</v>
@@ -34115,7 +36462,7 @@
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="U84" t="s">
         <v>214</v>
@@ -34123,7 +36470,7 @@
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U85" t="s">
         <v>153</v>
@@ -34131,7 +36478,7 @@
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="U86" t="s">
         <v>424</v>
@@ -34139,7 +36486,7 @@
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="U87" t="s">
         <v>154</v>
@@ -34147,7 +36494,7 @@
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="U88" t="s">
         <v>155</v>
@@ -34155,7 +36502,7 @@
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="U89" t="s">
         <v>156</v>
@@ -34163,7 +36510,7 @@
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="U90" t="s">
         <v>157</v>
@@ -34171,13 +36518,16 @@
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
+      <c r="E92" t="s">
+        <v>284</v>
+      </c>
       <c r="U92" t="s">
         <v>159</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30326" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32114" uniqueCount="495">
   <si>
     <t>jira</t>
   </si>
@@ -1532,13 +1532,28 @@
   <si>
     <t>decrement(var,amount)</t>
   </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="933" x14ac:knownFonts="1">
+  <fonts count="993" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7447,8 +7462,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1621">
+  <fills count="1729">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16630,8 +17021,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1559">
+  <borders count="1671">
     <border>
       <left/>
       <right/>
@@ -29727,6 +30730,1134 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -31842,7 +33973,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="958">
+  <cellXfs count="1018">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34689,49 +36820,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="917" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1596" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="919" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="1599" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1599" fontId="920" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="1602" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1602" fontId="921" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="922" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="923" fillId="1605" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1605" fontId="923" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="926" fillId="1611" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="927" fillId="1614" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="928" fillId="1614" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="929" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="930" fillId="1620" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="931" fillId="1617" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="924" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1608" fontId="925" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1611" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1614" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1614" fontId="928" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1617" fontId="929" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="930" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1617" fontId="931" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="932" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1623" fontId="933" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="934" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1626" fontId="935" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1629" fontId="936" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="937" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1632" fontId="938" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="939" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1635" fontId="940" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1638" fontId="941" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1641" fontId="942" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1641" fontId="943" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1644" fontId="944" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1647" fontId="945" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1644" fontId="946" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="947" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1650" fontId="948" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="949" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1653" fontId="950" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1656" fontId="951" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="952" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1659" fontId="953" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="954" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1662" fontId="955" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1665" fontId="956" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1668" fontId="957" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1668" fontId="958" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1671" fontId="959" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1674" fontId="960" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1671" fontId="961" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="962" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1677" fontId="963" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="964" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1680" fontId="965" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1683" fontId="966" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="967" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1686" fontId="968" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="969" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1689" fontId="970" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1692" fontId="971" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1695" fontId="972" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1695" fontId="973" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1698" fontId="974" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1701" fontId="975" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1698" fontId="976" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="977" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1704" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="1707" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="981" fillId="1710" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="1713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="1716" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="1719" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="1722" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="1722" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35053,7 +37364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -36089,7 +38400,7 @@
         <v>316</v>
       </c>
       <c r="U37" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38">
@@ -36097,7 +38408,7 @@
         <v>273</v>
       </c>
       <c r="U38" t="s">
-        <v>125</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39">
@@ -36105,7 +38416,7 @@
         <v>81</v>
       </c>
       <c r="U39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -36113,7 +38424,7 @@
         <v>218</v>
       </c>
       <c r="U40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -36121,7 +38432,7 @@
         <v>295</v>
       </c>
       <c r="U41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
@@ -36129,7 +38440,7 @@
         <v>306</v>
       </c>
       <c r="U42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -36137,7 +38448,7 @@
         <v>307</v>
       </c>
       <c r="U43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
@@ -36145,7 +38456,7 @@
         <v>356</v>
       </c>
       <c r="U44" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -36153,7 +38464,7 @@
         <v>355</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46">
@@ -36161,7 +38472,7 @@
         <v>217</v>
       </c>
       <c r="U46" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -36169,7 +38480,7 @@
         <v>332</v>
       </c>
       <c r="U47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48">
@@ -36177,7 +38488,7 @@
         <v>352</v>
       </c>
       <c r="U48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49">
@@ -36185,7 +38496,7 @@
         <v>409</v>
       </c>
       <c r="U49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50">
@@ -36193,7 +38504,7 @@
         <v>309</v>
       </c>
       <c r="U50" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
@@ -36201,7 +38512,7 @@
         <v>393</v>
       </c>
       <c r="U51" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
@@ -36209,7 +38520,7 @@
         <v>343</v>
       </c>
       <c r="U52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
@@ -36217,7 +38528,7 @@
         <v>274</v>
       </c>
       <c r="U53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
@@ -36225,7 +38536,7 @@
         <v>298</v>
       </c>
       <c r="U54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
@@ -36233,7 +38544,7 @@
         <v>299</v>
       </c>
       <c r="U55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
@@ -36241,7 +38552,7 @@
         <v>300</v>
       </c>
       <c r="U56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
@@ -36249,7 +38560,7 @@
         <v>310</v>
       </c>
       <c r="U57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
@@ -36257,7 +38568,7 @@
         <v>320</v>
       </c>
       <c r="U58" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
@@ -36265,7 +38576,7 @@
         <v>350</v>
       </c>
       <c r="U59" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60">
@@ -36273,7 +38584,7 @@
         <v>317</v>
       </c>
       <c r="U60" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61">
@@ -36281,7 +38592,7 @@
         <v>318</v>
       </c>
       <c r="U61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
@@ -36289,7 +38600,7 @@
         <v>410</v>
       </c>
       <c r="U62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63">
@@ -36297,7 +38608,7 @@
         <v>411</v>
       </c>
       <c r="U63" t="s">
-        <v>145</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64">
@@ -36305,7 +38616,7 @@
         <v>358</v>
       </c>
       <c r="U64" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
@@ -36313,7 +38624,7 @@
         <v>321</v>
       </c>
       <c r="U65" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
@@ -36321,7 +38632,7 @@
         <v>275</v>
       </c>
       <c r="U66" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67">
@@ -36329,7 +38640,7 @@
         <v>390</v>
       </c>
       <c r="U67" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68">
@@ -36337,7 +38648,7 @@
         <v>322</v>
       </c>
       <c r="U68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
@@ -36345,7 +38656,7 @@
         <v>453</v>
       </c>
       <c r="U69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
@@ -36353,7 +38664,7 @@
         <v>312</v>
       </c>
       <c r="U70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
@@ -36361,7 +38672,7 @@
         <v>454</v>
       </c>
       <c r="U71" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
@@ -36369,7 +38680,7 @@
         <v>268</v>
       </c>
       <c r="U72" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73">
@@ -36377,7 +38688,7 @@
         <v>357</v>
       </c>
       <c r="U73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
@@ -36385,7 +38696,7 @@
         <v>286</v>
       </c>
       <c r="U74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75">
@@ -36393,7 +38704,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76">
@@ -36401,7 +38712,7 @@
         <v>297</v>
       </c>
       <c r="U76" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77">
@@ -36409,7 +38720,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78">
@@ -36417,7 +38728,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79">
@@ -36425,7 +38736,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
@@ -36433,7 +38744,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81">
@@ -36441,7 +38752,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>212</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82">
@@ -36449,7 +38760,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83">
@@ -36457,7 +38768,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84">
@@ -36465,7 +38776,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85">
@@ -36473,7 +38784,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86">
@@ -36481,7 +38792,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>424</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
@@ -36489,7 +38800,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88">
@@ -36497,7 +38808,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89">
@@ -36505,7 +38816,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>156</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90">
@@ -36513,7 +38824,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
@@ -36521,7 +38832,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
@@ -36529,86 +38840,101 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="U109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32114" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32562" uniqueCount="496">
   <si>
     <t>jira</t>
   </si>
@@ -1547,13 +1547,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="993" x14ac:knownFonts="1">
+  <fonts count="1008" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7838,8 +7841,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1729">
+  <fills count="1756">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17633,8 +17730,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1671">
+  <borders count="1699">
     <border>
       <left/>
       <right/>
@@ -30730,6 +30980,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -33973,7 +34505,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1018">
+  <cellXfs count="1033">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37000,49 +37532,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="977" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="978" fillId="1704" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="979" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1704" fontId="978" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="979" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="980" fillId="1707" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1707" fontId="980" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="981" fillId="1710" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1710" fontId="981" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="982" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="982" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="983" fillId="1713" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1713" fontId="983" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="984" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="985" fillId="1716" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="986" fillId="1719" borderId="1666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="987" fillId="1722" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="988" fillId="1722" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="989" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="990" fillId="1728" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="991" fillId="1725" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="992" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="984" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1716" fontId="985" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1719" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1722" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1722" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1725" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1728" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1725" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="1731" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="1734" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="1737" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="1740" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="1743" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="1746" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="1749" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="1749" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="1755" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37364,7 +37941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38576,7 +39153,7 @@
         <v>350</v>
       </c>
       <c r="U59" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60">
@@ -38584,7 +39161,7 @@
         <v>317</v>
       </c>
       <c r="U60" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -38592,7 +39169,7 @@
         <v>318</v>
       </c>
       <c r="U61" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62">
@@ -38600,7 +39177,7 @@
         <v>410</v>
       </c>
       <c r="U62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
@@ -38608,7 +39185,7 @@
         <v>411</v>
       </c>
       <c r="U63" t="s">
-        <v>491</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -38616,7 +39193,7 @@
         <v>358</v>
       </c>
       <c r="U64" t="s">
-        <v>144</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
@@ -38624,7 +39201,7 @@
         <v>321</v>
       </c>
       <c r="U65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -38632,7 +39209,7 @@
         <v>275</v>
       </c>
       <c r="U66" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -38640,7 +39217,7 @@
         <v>390</v>
       </c>
       <c r="U67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68">
@@ -38648,7 +39225,7 @@
         <v>322</v>
       </c>
       <c r="U68" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
@@ -38656,7 +39233,7 @@
         <v>453</v>
       </c>
       <c r="U69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
@@ -38664,7 +39241,7 @@
         <v>312</v>
       </c>
       <c r="U70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
@@ -38672,7 +39249,7 @@
         <v>454</v>
       </c>
       <c r="U71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
@@ -38680,7 +39257,7 @@
         <v>268</v>
       </c>
       <c r="U72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73">
@@ -38688,7 +39265,7 @@
         <v>357</v>
       </c>
       <c r="U73" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
@@ -38696,7 +39273,7 @@
         <v>286</v>
       </c>
       <c r="U74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
@@ -38704,7 +39281,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76">
@@ -38712,7 +39289,7 @@
         <v>297</v>
       </c>
       <c r="U76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77">
@@ -38720,7 +39297,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78">
@@ -38728,7 +39305,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
@@ -38736,7 +39313,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -38744,7 +39321,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81">
@@ -38752,7 +39329,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -38760,7 +39337,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
@@ -38768,7 +39345,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84">
@@ -38776,7 +39353,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85">
@@ -38784,7 +39361,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
@@ -38792,7 +39369,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87">
@@ -38800,7 +39377,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88">
@@ -38808,7 +39385,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -38816,7 +39393,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
@@ -38824,7 +39401,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91">
@@ -38832,7 +39409,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
@@ -38840,101 +39417,106 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -17,16 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -35,8 +35,8 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32562" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33017" uniqueCount="504">
   <si>
     <t>jira</t>
   </si>
@@ -1550,13 +1550,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1008" x14ac:knownFonts="1">
+  <fonts count="1023" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7935,8 +7959,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1756">
+  <fills count="1783">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17883,8 +18001,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1699">
+  <borders count="1727">
     <border>
       <left/>
       <right/>
@@ -30980,6 +31251,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -34505,7 +35058,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1033">
+  <cellXfs count="1048">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37577,49 +38130,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="992" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="993" fillId="1731" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="994" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1731" fontId="993" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="994" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="995" fillId="1734" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1734" fontId="995" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="996" fillId="1737" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1737" fontId="996" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="997" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="997" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="998" fillId="1740" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1740" fontId="998" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="999" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1000" fillId="1743" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1001" fillId="1746" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1002" fillId="1749" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1003" fillId="1749" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1004" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1005" fillId="1755" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1006" fillId="1752" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1007" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="999" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1743" fontId="1000" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1746" fontId="1001" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1749" fontId="1002" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1749" fontId="1003" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1752" fontId="1004" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1755" fontId="1005" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1752" fontId="1006" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1007" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="1758" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1761" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1764" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1767" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1770" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="1773" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1776" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="1776" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1779" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1782" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1779" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37941,7 +38539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38267,6 +38865,9 @@
       <c r="C5" t="s">
         <v>230</v>
       </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
       <c r="E5" t="s">
         <v>349</v>
       </c>
@@ -38360,7 +38961,7 @@
         <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>179</v>
+        <v>502</v>
       </c>
       <c r="W6" t="s">
         <v>184</v>
@@ -38415,6 +39016,9 @@
       <c r="U7" t="s">
         <v>103</v>
       </c>
+      <c r="V7" t="s">
+        <v>503</v>
+      </c>
       <c r="W7" t="s">
         <v>185</v>
       </c>
@@ -38465,6 +39069,9 @@
       <c r="U8" t="s">
         <v>104</v>
       </c>
+      <c r="V8" t="s">
+        <v>179</v>
+      </c>
       <c r="W8" t="s">
         <v>186</v>
       </c>
@@ -38533,7 +39140,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="M10" t="s">
         <v>489</v>
@@ -38568,7 +39175,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -38600,7 +39207,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -38628,6 +39235,9 @@
       <c r="I13" t="s">
         <v>85</v>
       </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
       <c r="M13" t="s">
         <v>97</v>
       </c>
@@ -38778,7 +39388,7 @@
         <v>303</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -38795,7 +39405,7 @@
         <v>304</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -38811,6 +39421,9 @@
       <c r="E22" t="s">
         <v>305</v>
       </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
       <c r="U22" t="s">
         <v>113</v>
       </c>
@@ -39041,7 +39654,7 @@
         <v>355</v>
       </c>
       <c r="U45" t="s">
-        <v>219</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46">
@@ -39049,7 +39662,7 @@
         <v>217</v>
       </c>
       <c r="U46" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
@@ -39057,7 +39670,7 @@
         <v>332</v>
       </c>
       <c r="U47" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -39065,7 +39678,7 @@
         <v>352</v>
       </c>
       <c r="U48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
@@ -39073,7 +39686,7 @@
         <v>409</v>
       </c>
       <c r="U49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
@@ -39081,7 +39694,7 @@
         <v>309</v>
       </c>
       <c r="U50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
@@ -39089,7 +39702,7 @@
         <v>393</v>
       </c>
       <c r="U51" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
@@ -39097,7 +39710,7 @@
         <v>343</v>
       </c>
       <c r="U52" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53">
@@ -39105,7 +39718,7 @@
         <v>274</v>
       </c>
       <c r="U53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -39113,7 +39726,7 @@
         <v>298</v>
       </c>
       <c r="U54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55">
@@ -39121,7 +39734,7 @@
         <v>299</v>
       </c>
       <c r="U55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
@@ -39129,7 +39742,7 @@
         <v>300</v>
       </c>
       <c r="U56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -39137,7 +39750,7 @@
         <v>310</v>
       </c>
       <c r="U57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -39145,7 +39758,7 @@
         <v>320</v>
       </c>
       <c r="U58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -39153,7 +39766,7 @@
         <v>350</v>
       </c>
       <c r="U59" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60">
@@ -39161,7 +39774,7 @@
         <v>317</v>
       </c>
       <c r="U60" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61">
@@ -39169,7 +39782,7 @@
         <v>318</v>
       </c>
       <c r="U61" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62">
@@ -39177,7 +39790,7 @@
         <v>410</v>
       </c>
       <c r="U62" t="s">
-        <v>142</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63">
@@ -39185,7 +39798,7 @@
         <v>411</v>
       </c>
       <c r="U63" t="s">
-        <v>143</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
@@ -39193,7 +39806,7 @@
         <v>358</v>
       </c>
       <c r="U64" t="s">
-        <v>491</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
@@ -39201,7 +39814,7 @@
         <v>321</v>
       </c>
       <c r="U65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
@@ -39209,7 +39822,7 @@
         <v>275</v>
       </c>
       <c r="U66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -39217,7 +39830,7 @@
         <v>390</v>
       </c>
       <c r="U67" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
@@ -39225,7 +39838,7 @@
         <v>322</v>
       </c>
       <c r="U68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
@@ -39233,7 +39846,7 @@
         <v>453</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70">
@@ -39241,7 +39854,7 @@
         <v>312</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -39249,7 +39862,7 @@
         <v>454</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -39257,7 +39870,7 @@
         <v>268</v>
       </c>
       <c r="U72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
@@ -39265,7 +39878,7 @@
         <v>357</v>
       </c>
       <c r="U73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
@@ -39273,7 +39886,7 @@
         <v>286</v>
       </c>
       <c r="U74" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75">
@@ -39281,7 +39894,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
@@ -39289,7 +39902,7 @@
         <v>297</v>
       </c>
       <c r="U76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
@@ -39297,7 +39910,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78">
@@ -39305,7 +39918,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79">
@@ -39313,7 +39926,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80">
@@ -39321,7 +39934,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
@@ -39329,7 +39942,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82">
@@ -39337,7 +39950,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
@@ -39345,7 +39958,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84">
@@ -39353,7 +39966,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -39361,7 +39974,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
@@ -39369,7 +39982,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -39377,7 +39990,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88">
@@ -39385,7 +39998,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89">
@@ -39393,7 +40006,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90">
@@ -39401,7 +40014,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
@@ -39409,7 +40022,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>154</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92">
@@ -39417,106 +40030,116 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>168</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33017" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33472" uniqueCount="504">
   <si>
     <t>jira</t>
   </si>
@@ -1580,7 +1580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1023" x14ac:knownFonts="1">
+  <fonts count="1038" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8053,8 +8053,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1783">
+  <fills count="1810">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18154,8 +18248,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1727">
+  <borders count="1755">
     <border>
       <left/>
       <right/>
@@ -31251,6 +31498,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -35058,7 +35587,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1048">
+  <cellXfs count="1063">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38175,49 +38704,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1007" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1008" fillId="1758" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1009" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1758" fontId="1008" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1009" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1761" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1761" fontId="1010" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1764" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1714" fillId="1764" fontId="1011" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1012" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1767" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1767" fontId="1013" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1770" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1016" fillId="1773" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1776" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1018" fillId="1776" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1779" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1782" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1779" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1022" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1014" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1770" fontId="1015" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1773" fontId="1016" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1776" fontId="1017" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1776" fontId="1018" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1779" fontId="1019" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1782" fontId="1020" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1779" fontId="1021" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1022" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1785" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1788" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1791" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="1794" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="1797" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1800" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="1803" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1803" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="1806" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1809" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1806" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33472" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33927" uniqueCount="504">
   <si>
     <t>jira</t>
   </si>
@@ -1580,7 +1580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1038" x14ac:knownFonts="1">
+  <fonts count="1053" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8147,8 +8147,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1810">
+  <fills count="1837">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18401,8 +18495,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1755">
+  <borders count="1783">
     <border>
       <left/>
       <right/>
@@ -31498,6 +31745,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -35587,7 +36116,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1063">
+  <cellXfs count="1078">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38749,49 +39278,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1022" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1785" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1024" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1734" fillId="1785" fontId="1023" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1024" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1788" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1788" fontId="1025" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1791" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1791" fontId="1026" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1027" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1028" fillId="1794" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1794" fontId="1028" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1030" fillId="1797" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1800" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1032" fillId="1803" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1803" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1034" fillId="1806" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1809" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1806" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1029" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1746" fillId="1797" fontId="1030" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1800" fontId="1031" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1803" fontId="1032" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1803" fontId="1033" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1806" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1809" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1806" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1812" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="1815" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1818" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="1821" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="1824" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="1827" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="1830" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="1830" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="1833" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="1836" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="1833" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33927" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34383" uniqueCount="504">
   <si>
     <t>jira</t>
   </si>
@@ -1580,7 +1580,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1053" x14ac:knownFonts="1">
+  <fonts count="1068" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8241,8 +8241,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1837">
+  <fills count="1864">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18648,8 +18742,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1783">
+  <borders count="1811">
     <border>
       <left/>
       <right/>
@@ -31745,6 +31992,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -36116,7 +36645,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1078">
+  <cellXfs count="1093">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39323,49 +39852,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1037" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1812" borderId="1762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1039" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1762" fillId="1812" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1039" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1040" fillId="1815" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1766" fillId="1815" fontId="1040" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1818" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1818" fontId="1041" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1042" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1042" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1043" fillId="1821" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1821" fontId="1043" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1044" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1045" fillId="1824" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1046" fillId="1827" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1047" fillId="1830" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1048" fillId="1830" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1049" fillId="1833" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1050" fillId="1836" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1051" fillId="1833" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1052" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1824" fontId="1045" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1778" fillId="1827" fontId="1046" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1830" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1830" fontId="1048" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1833" fontId="1049" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1836" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1833" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="1839" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="1842" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="1845" borderId="1798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="1848" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="1851" borderId="1802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="1854" borderId="1806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1857" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1857" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="1860" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="1863" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="1860" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40144,7 +40718,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>323</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -40200,7 +40774,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -40250,7 +40824,7 @@
         <v>431</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -40288,7 +40862,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>489</v>
@@ -40323,7 +40897,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -40355,7 +40929,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -40384,7 +40958,7 @@
         <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
         <v>97</v>
@@ -40411,6 +40985,9 @@
       </c>
       <c r="I14" t="s">
         <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
       </c>
       <c r="M14" t="s">
         <v>98</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34383" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34841" uniqueCount="506">
   <si>
     <t>jira</t>
   </si>
@@ -1574,13 +1574,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1068" x14ac:knownFonts="1">
+  <fonts count="1083" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8335,8 +8341,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1864">
+  <fills count="1891">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18895,8 +18995,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1811">
+  <borders count="1839">
     <border>
       <left/>
       <right/>
@@ -31992,6 +32245,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -36645,7 +37180,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1093">
+  <cellXfs count="1108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39897,49 +40432,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1052" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1053" fillId="1839" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1054" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1839" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1054" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1055" fillId="1842" borderId="1794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1794" fillId="1842" fontId="1055" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1056" fillId="1845" borderId="1798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1798" fillId="1845" fontId="1056" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1057" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1057" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1058" fillId="1848" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1848" fontId="1058" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1059" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1060" fillId="1851" borderId="1802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1061" fillId="1854" borderId="1806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1062" fillId="1857" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1063" fillId="1857" borderId="1810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1064" fillId="1860" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1065" fillId="1863" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1066" fillId="1860" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1067" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1802" fillId="1851" fontId="1060" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1854" fontId="1061" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1810" fillId="1857" fontId="1062" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1810" fillId="1857" fontId="1063" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1860" fontId="1064" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1863" fontId="1065" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1860" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1866" borderId="1818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1869" borderId="1822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1872" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1875" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1878" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="1881" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="1884" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="1884" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1887" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="1890" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1887" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40449,7 +41029,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -40523,7 +41103,7 @@
         <v>428</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="H4" t="s">
         <v>365</v>
@@ -40594,7 +41174,7 @@
         <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H5" t="s">
         <v>361</v>
@@ -40656,7 +41236,7 @@
         <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -40712,7 +41292,7 @@
         <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -40768,7 +41348,7 @@
         <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -40820,6 +41400,9 @@
       <c r="E9" t="s">
         <v>314</v>
       </c>
+      <c r="F9" t="s">
+        <v>336</v>
+      </c>
       <c r="I9" t="s">
         <v>431</v>
       </c>
@@ -40857,6 +41440,9 @@
       </c>
       <c r="E10" t="s">
         <v>389</v>
+      </c>
+      <c r="F10" t="s">
+        <v>337</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34841" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35765" uniqueCount="511">
   <si>
     <t>jira</t>
   </si>
@@ -1580,13 +1580,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1083" x14ac:knownFonts="1">
+  <fonts count="1113" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8435,8 +8450,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1891">
+  <fills count="1945">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19148,8 +19351,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1839">
+  <borders count="1895">
     <border>
       <left/>
       <right/>
@@ -32245,6 +32754,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -37180,7 +38253,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1108">
+  <cellXfs count="1138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40477,49 +41550,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1067" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1068" fillId="1866" borderId="1818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1069" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1818" fillId="1866" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1069" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1070" fillId="1869" borderId="1822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1869" fontId="1070" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1872" borderId="1826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1826" fillId="1872" fontId="1071" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1072" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1072" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1875" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1875" fontId="1073" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1074" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1878" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1076" fillId="1881" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1077" fillId="1884" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1078" fillId="1884" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1887" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1080" fillId="1890" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1887" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1074" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1830" fillId="1878" fontId="1075" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1834" fillId="1881" fontId="1076" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1884" fontId="1077" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1884" fontId="1078" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1887" fontId="1079" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1890" fontId="1080" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1887" fontId="1081" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1846" fillId="1893" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1850" fillId="1896" fontId="1085" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1899" fontId="1086" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1087" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1902" fontId="1088" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1089" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1858" fillId="1905" fontId="1090" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1862" fillId="1908" fontId="1091" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1911" fontId="1092" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1911" fontId="1093" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1914" fontId="1094" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1917" fontId="1095" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1914" fontId="1096" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1097" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="1920" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1923" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1926" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1929" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1932" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1935" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1938" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="1938" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="1941" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="1944" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="1941" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40949,7 +42112,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>507</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -41029,7 +42192,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -41103,7 +42266,7 @@
         <v>428</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H4" t="s">
         <v>365</v>
@@ -41174,7 +42337,7 @@
         <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>340</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
         <v>361</v>
@@ -41236,7 +42399,7 @@
         <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -41292,7 +42455,7 @@
         <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -41348,7 +42511,7 @@
         <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -41401,7 +42564,7 @@
         <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>510</v>
       </c>
       <c r="I9" t="s">
         <v>431</v>
@@ -41442,7 +42605,7 @@
         <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -41479,6 +42642,9 @@
       <c r="E11" t="s">
         <v>280</v>
       </c>
+      <c r="F11" t="s">
+        <v>335</v>
+      </c>
       <c r="I11" t="s">
         <v>44</v>
       </c>
@@ -41511,6 +42677,9 @@
       <c r="E12" t="s">
         <v>269</v>
       </c>
+      <c r="F12" t="s">
+        <v>336</v>
+      </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
@@ -41539,6 +42708,9 @@
       </c>
       <c r="E13" t="s">
         <v>325</v>
+      </c>
+      <c r="F13" t="s">
+        <v>337</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
@@ -41744,7 +42916,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>506</v>
       </c>
       <c r="E23" t="s">
         <v>296</v>
@@ -41758,7 +42930,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
@@ -41772,7 +42944,7 @@
         <v>470</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -41786,7 +42958,7 @@
         <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -41797,7 +42969,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -41808,7 +42980,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -41819,7 +42991,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -41830,7 +43002,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -41841,7 +43013,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -41852,7 +43024,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -41863,7 +43035,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>266</v>
@@ -41873,6 +43045,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
       <c r="E34" t="s">
         <v>342</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35765" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36691" uniqueCount="513">
   <si>
     <t>jira</t>
   </si>
@@ -1595,13 +1595,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1113" x14ac:knownFonts="1">
+  <fonts count="1143" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8638,8 +8644,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1945">
+  <fills count="1999">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19657,8 +19851,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1895">
+  <borders count="1951">
     <border>
       <left/>
       <right/>
@@ -32754,6 +33254,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -38253,7 +39317,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1138">
+  <cellXfs count="1168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41640,49 +42704,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1097" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1098" fillId="1920" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1874" fillId="1920" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1099" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1923" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1878" fillId="1923" fontId="1100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1926" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1882" fillId="1926" fontId="1101" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1102" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1103" fillId="1929" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1929" fontId="1103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1104" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1105" fillId="1932" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1106" fillId="1935" borderId="1890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1107" fillId="1938" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1108" fillId="1938" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1109" fillId="1941" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1110" fillId="1944" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1111" fillId="1941" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1932" fontId="1105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1890" fillId="1935" fontId="1106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1894" fillId="1938" fontId="1107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1894" fillId="1938" fontId="1108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1941" fontId="1109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1944" fontId="1110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1941" fontId="1111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1947" fontId="1113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1906" fillId="1950" fontId="1115" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1910" fillId="1953" fontId="1116" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1117" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1956" fontId="1118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1914" fillId="1959" fontId="1120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1962" fontId="1121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1922" fillId="1965" fontId="1122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1922" fillId="1965" fontId="1123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1968" fontId="1124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1971" fontId="1125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1968" fontId="1126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="1974" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1130" fillId="1977" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="1980" borderId="1938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="1983" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1135" fillId="1986" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1136" fillId="1989" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1137" fillId="1992" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1138" fillId="1992" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="1998" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -42004,7 +43158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43396,7 +44550,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78">
@@ -43404,7 +44558,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
@@ -43412,7 +44566,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
@@ -43420,7 +44574,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81">
@@ -43428,7 +44582,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
@@ -43436,7 +44590,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -43444,7 +44598,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84">
@@ -43452,7 +44606,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85">
@@ -43460,7 +44614,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -43468,7 +44622,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -43476,7 +44630,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -43484,7 +44638,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -43492,7 +44646,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90">
@@ -43500,7 +44654,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91">
@@ -43508,7 +44662,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>424</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -43516,116 +44670,121 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36691" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37155" uniqueCount="514">
   <si>
     <t>jira</t>
   </si>
@@ -1601,13 +1601,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1143" x14ac:knownFonts="1">
+  <fonts count="1158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8832,8 +8835,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1999">
+  <fills count="2026">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20157,8 +20254,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1951">
+  <borders count="1979">
     <border>
       <left/>
       <right/>
@@ -33254,6 +33504,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -39317,7 +39849,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1168">
+  <cellXfs count="1183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42794,49 +43326,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1128" fillId="1974" borderId="1930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1930" fillId="1974" fontId="1128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1130" fillId="1977" borderId="1934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1977" fontId="1130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1131" fillId="1980" borderId="1938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1938" fillId="1980" fontId="1131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1132" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1133" fillId="1983" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1983" fontId="1133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1134" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1135" fillId="1986" borderId="1942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1136" fillId="1989" borderId="1946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1137" fillId="1992" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1138" fillId="1992" borderId="1950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1139" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1140" fillId="1998" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1141" fillId="1995" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1942" fillId="1986" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1946" fillId="1989" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1992" fontId="1137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1992" fontId="1138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1995" fontId="1139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1998" fontId="1140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1995" fontId="1141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="2001" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="2004" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="2007" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="2010" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="2013" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="2016" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="2019" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="2019" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="2022" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="2025" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1156" fillId="2022" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43158,7 +43735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -44494,7 +45071,7 @@
         <v>312</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71">
@@ -44502,7 +45079,7 @@
         <v>454</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -44510,7 +45087,7 @@
         <v>268</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -44518,7 +45095,7 @@
         <v>357</v>
       </c>
       <c r="U73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -44526,7 +45103,7 @@
         <v>286</v>
       </c>
       <c r="U74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -44534,7 +45111,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -44542,7 +45119,7 @@
         <v>297</v>
       </c>
       <c r="U76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
@@ -44550,7 +45127,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
@@ -44558,7 +45135,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79">
@@ -44566,7 +45143,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
@@ -44574,7 +45151,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -44582,7 +45159,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82">
@@ -44590,7 +45167,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
@@ -44598,7 +45175,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -44606,7 +45183,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85">
@@ -44614,7 +45191,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86">
@@ -44622,7 +45199,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87">
@@ -44630,7 +45207,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -44638,7 +45215,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -44646,7 +45223,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
@@ -44654,7 +45231,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91">
@@ -44662,7 +45239,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
@@ -44670,121 +45247,126 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -21,7 +21,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37155" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37620" uniqueCount="515">
   <si>
     <t>jira</t>
   </si>
@@ -1604,13 +1604,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1158" x14ac:knownFonts="1">
+  <fonts count="1173" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8929,8 +8932,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2026">
+  <fills count="2053">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20407,8 +20504,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1979">
+  <borders count="2007">
     <border>
       <left/>
       <right/>
@@ -33504,6 +33754,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -39849,7 +40381,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1183">
+  <cellXfs count="1198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43371,49 +43903,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1143" fillId="2001" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1958" fillId="2001" fontId="1143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1145" fillId="2004" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1962" fillId="2004" fontId="1145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1146" fillId="2007" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="2007" fontId="1146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1148" fillId="2010" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2010" fontId="1148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1149" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1150" fillId="2013" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1151" fillId="2016" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1152" fillId="2019" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1153" fillId="2019" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1154" fillId="2022" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1155" fillId="2025" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1156" fillId="2022" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1970" fillId="2013" fontId="1150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1974" fillId="2016" fontId="1151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="2019" fontId="1152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="2019" fontId="1153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2022" fontId="1154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2025" fontId="1155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2022" fontId="1156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="2028" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1160" fillId="2031" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="2034" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="2037" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="2040" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1166" fillId="2043" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1167" fillId="2046" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1168" fillId="2046" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1169" fillId="2049" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1170" fillId="2052" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1171" fillId="2049" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1172" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44068,7 +44645,7 @@
         <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H5" t="s">
         <v>361</v>
@@ -44130,7 +44707,7 @@
         <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -44186,7 +44763,7 @@
         <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -44242,7 +44819,7 @@
         <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -44295,7 +44872,7 @@
         <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="I9" t="s">
         <v>431</v>
@@ -44336,7 +44913,7 @@
         <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>510</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -44374,7 +44951,7 @@
         <v>280</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -44409,7 +44986,7 @@
         <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
@@ -44441,7 +45018,7 @@
         <v>325</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
@@ -44471,6 +45048,9 @@
       </c>
       <c r="E14" t="s">
         <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>337</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37620" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38551" uniqueCount="516">
   <si>
     <t>jira</t>
   </si>
@@ -1607,13 +1607,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1173" x14ac:knownFonts="1">
+  <fonts count="1203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9026,8 +9029,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2053">
+  <fills count="2107">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20657,8 +20848,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2007">
+  <borders count="2063">
     <border>
       <left/>
       <right/>
@@ -33754,6 +34251,570 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -40381,7 +41442,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1198">
+  <cellXfs count="1228">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43948,49 +45009,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1158" fillId="2028" borderId="1986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1986" fillId="2028" fontId="1158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1160" fillId="2031" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1990" fillId="2031" fontId="1160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1161" fillId="2034" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1994" fillId="2034" fontId="1161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1162" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1163" fillId="2037" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2037" fontId="1163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1164" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1165" fillId="2040" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1166" fillId="2043" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1167" fillId="2046" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1168" fillId="2046" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1169" fillId="2049" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1170" fillId="2052" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1171" fillId="2049" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="2040" fontId="1165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2002" fillId="2043" fontId="1166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="2046" fontId="1167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="2046" fontId="1168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2049" fontId="1169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2052" fontId="1170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2049" fontId="1171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="2055" fontId="1173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2018" fillId="2058" fontId="1175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2022" fillId="2061" fontId="1176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2064" fontId="1178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2026" fillId="2067" fontId="1180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2030" fillId="2070" fontId="1181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2034" fillId="2073" fontId="1182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2034" fillId="2073" fontId="1183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2076" fontId="1184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2079" fontId="1185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2076" fontId="1186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1188" fillId="2082" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1190" fillId="2085" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="2088" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="2091" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="2094" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1196" fillId="2097" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1197" fillId="2100" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1198" fillId="2100" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1199" fillId="2103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1200" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1201" fillId="2103" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45053,7 +46204,7 @@
         <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>515</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -45082,7 +46233,7 @@
         <v>271</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
         <v>99</v>
@@ -45108,7 +46259,7 @@
         <v>328</v>
       </c>
       <c r="I16" t="s">
-        <v>421</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>258</v>
@@ -45131,7 +46282,7 @@
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="U17" t="s">
         <v>108</v>
@@ -45148,7 +46299,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
         <v>109</v>
@@ -45165,7 +46316,7 @@
         <v>302</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>433</v>
       </c>
       <c r="U19" t="s">
         <v>110</v>
@@ -45182,7 +46333,7 @@
         <v>303</v>
       </c>
       <c r="I20" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -45199,7 +46350,7 @@
         <v>304</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -45216,7 +46367,7 @@
         <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U22" t="s">
         <v>113</v>
@@ -45231,6 +46382,9 @@
       </c>
       <c r="E23" t="s">
         <v>296</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>114</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38551" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39019" uniqueCount="518">
   <si>
     <t>jira</t>
   </si>
@@ -1610,13 +1610,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1203" x14ac:knownFonts="1">
+  <fonts count="1218" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9217,8 +9223,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2107">
+  <fills count="2134">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21154,8 +21254,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2063">
+  <borders count="2091">
     <border>
       <left/>
       <right/>
@@ -34251,6 +34504,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -41442,7 +41977,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1228">
+  <cellXfs count="1243">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -45099,49 +45634,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1188" fillId="2082" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2042" fillId="2082" fontId="1188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1190" fillId="2085" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="2085" fontId="1190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1191" fillId="2088" borderId="2050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2050" fillId="2088" fontId="1191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1193" fillId="2091" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2091" fontId="1193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1194" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1195" fillId="2094" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1196" fillId="2097" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1197" fillId="2100" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1198" fillId="2100" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1199" fillId="2103" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1200" fillId="2106" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1201" fillId="2103" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2054" fillId="2094" fontId="1195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2058" fillId="2097" fontId="1196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="2100" fontId="1197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="2100" fontId="1198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2103" fontId="1199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2106" fontId="1200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2103" fontId="1201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1203" fillId="2109" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1205" fillId="2112" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1206" fillId="2115" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1208" fillId="2118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="2121" borderId="2082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1211" fillId="2124" borderId="2086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1212" fillId="2127" borderId="2090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1213" fillId="2127" borderId="2090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="2130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1215" fillId="2133" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1216" fillId="2130" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1217" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -45642,7 +46222,7 @@
         <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
         <v>406</v>
@@ -45716,7 +46296,7 @@
         <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -45787,7 +46367,7 @@
         <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>517</v>
       </c>
       <c r="D5" t="s">
         <v>496</v>
@@ -45852,7 +46432,7 @@
         <v>417</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>429</v>
@@ -45908,7 +46488,7 @@
         <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
         <v>407</v>
@@ -45964,7 +46544,7 @@
         <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
         <v>408</v>
@@ -46017,7 +46597,7 @@
         <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>314</v>
@@ -46058,7 +46638,7 @@
         <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
         <v>389</v>
@@ -46096,7 +46676,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
         <v>280</v>
@@ -46131,7 +46711,7 @@
         <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
         <v>269</v>
@@ -46163,7 +46743,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s">
         <v>325</v>
@@ -46195,7 +46775,7 @@
         <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>270</v>
@@ -46227,7 +46807,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>271</v>
@@ -46253,7 +46833,7 @@
         <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -46276,7 +46856,7 @@
         <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -46293,7 +46873,7 @@
         <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -46310,7 +46890,7 @@
         <v>396</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>302</v>
@@ -46327,7 +46907,7 @@
         <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>303</v>
@@ -46344,7 +46924,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="E21" t="s">
         <v>304</v>
@@ -46361,7 +46941,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>305</v>
@@ -46378,7 +46958,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>333</v>
       </c>
       <c r="E23" t="s">
         <v>296</v>
@@ -46395,7 +46975,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>285</v>
@@ -46409,7 +46989,7 @@
         <v>470</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>506</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -46423,7 +47003,7 @@
         <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>466</v>
+        <v>231</v>
       </c>
       <c r="E26" t="s">
         <v>288</v>
@@ -46434,7 +47014,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
         <v>272</v>
@@ -46445,7 +47025,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>466</v>
       </c>
       <c r="E28" t="s">
         <v>289</v>
@@ -46456,7 +47036,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>290</v>
@@ -46467,7 +47047,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>222</v>
@@ -46478,7 +47058,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>281</v>
@@ -46489,7 +47069,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>291</v>
@@ -46500,7 +47080,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>266</v>
@@ -46511,7 +47091,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>342</v>
@@ -46521,6 +47101,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
       <c r="E35" t="s">
         <v>315</v>
       </c>
@@ -46529,6 +47112,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" t="s">
         <v>267</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39019" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39488" uniqueCount="519">
   <si>
     <t>jira</t>
   </si>
@@ -1616,13 +1616,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1218" x14ac:knownFonts="1">
+  <fonts count="1233" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9317,8 +9320,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2134">
+  <fills count="2161">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21407,8 +21504,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2091">
+  <borders count="2119">
     <border>
       <left/>
       <right/>
@@ -34504,6 +34754,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -41977,7 +42509,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1243">
+  <cellXfs count="1258">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -45679,49 +46211,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1203" fillId="2109" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2070" fillId="2109" fontId="1203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1205" fillId="2112" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2074" fillId="2112" fontId="1205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1206" fillId="2115" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2078" fillId="2115" fontId="1206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1207" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1208" fillId="2118" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2118" fontId="1208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1209" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1210" fillId="2121" borderId="2082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1211" fillId="2124" borderId="2086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1212" fillId="2127" borderId="2090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1213" fillId="2127" borderId="2090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1214" fillId="2130" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1215" fillId="2133" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1216" fillId="2130" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2082" fillId="2121" fontId="1210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2086" fillId="2124" fontId="1211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2090" fillId="2127" fontId="1212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2090" fillId="2127" fontId="1213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2130" fontId="1214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2133" fontId="1215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2130" fontId="1216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1218" fillId="2136" borderId="2098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1220" fillId="2139" borderId="2102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1221" fillId="2142" borderId="2106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1223" fillId="2145" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1225" fillId="2148" borderId="2110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1226" fillId="2151" borderId="2114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1227" fillId="2154" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1228" fillId="2154" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1229" fillId="2157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1230" fillId="2160" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1231" fillId="2157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -46043,7 +46620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -47255,7 +47832,7 @@
         <v>274</v>
       </c>
       <c r="U53" t="s">
-        <v>135</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
@@ -47263,7 +47840,7 @@
         <v>298</v>
       </c>
       <c r="U54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -47271,7 +47848,7 @@
         <v>299</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
@@ -47279,7 +47856,7 @@
         <v>300</v>
       </c>
       <c r="U56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -47287,7 +47864,7 @@
         <v>310</v>
       </c>
       <c r="U57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -47295,7 +47872,7 @@
         <v>320</v>
       </c>
       <c r="U58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -47303,7 +47880,7 @@
         <v>350</v>
       </c>
       <c r="U59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -47311,7 +47888,7 @@
         <v>317</v>
       </c>
       <c r="U60" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
@@ -47319,7 +47896,7 @@
         <v>318</v>
       </c>
       <c r="U61" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62">
@@ -47327,7 +47904,7 @@
         <v>410</v>
       </c>
       <c r="U62" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -47335,7 +47912,7 @@
         <v>411</v>
       </c>
       <c r="U63" t="s">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64">
@@ -47343,7 +47920,7 @@
         <v>358</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65">
@@ -47351,7 +47928,7 @@
         <v>321</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -47359,7 +47936,7 @@
         <v>275</v>
       </c>
       <c r="U66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -47367,7 +47944,7 @@
         <v>390</v>
       </c>
       <c r="U67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
@@ -47375,7 +47952,7 @@
         <v>322</v>
       </c>
       <c r="U68" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
@@ -47383,7 +47960,7 @@
         <v>453</v>
       </c>
       <c r="U69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -47391,7 +47968,7 @@
         <v>312</v>
       </c>
       <c r="U70" t="s">
-        <v>513</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71">
@@ -47399,7 +47976,7 @@
         <v>454</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72">
@@ -47407,7 +47984,7 @@
         <v>268</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -47415,7 +47992,7 @@
         <v>357</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -47423,7 +48000,7 @@
         <v>286</v>
       </c>
       <c r="U74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -47431,7 +48008,7 @@
         <v>292</v>
       </c>
       <c r="U75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
@@ -47439,7 +48016,7 @@
         <v>297</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77">
@@ -47447,7 +48024,7 @@
         <v>476</v>
       </c>
       <c r="U77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
@@ -47455,7 +48032,7 @@
         <v>344</v>
       </c>
       <c r="U78" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
@@ -47463,7 +48040,7 @@
         <v>276</v>
       </c>
       <c r="U79" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80">
@@ -47471,7 +48048,7 @@
         <v>287</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
@@ -47479,7 +48056,7 @@
         <v>293</v>
       </c>
       <c r="U81" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -47487,7 +48064,7 @@
         <v>282</v>
       </c>
       <c r="U82" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83">
@@ -47495,7 +48072,7 @@
         <v>277</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
@@ -47503,7 +48080,7 @@
         <v>294</v>
       </c>
       <c r="U84" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -47511,7 +48088,7 @@
         <v>278</v>
       </c>
       <c r="U85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -47519,7 +48096,7 @@
         <v>279</v>
       </c>
       <c r="U86" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
@@ -47527,7 +48104,7 @@
         <v>313</v>
       </c>
       <c r="U87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -47535,7 +48112,7 @@
         <v>319</v>
       </c>
       <c r="U88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -47543,7 +48120,7 @@
         <v>301</v>
       </c>
       <c r="U89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -47551,7 +48128,7 @@
         <v>353</v>
       </c>
       <c r="U90" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -47559,7 +48136,7 @@
         <v>283</v>
       </c>
       <c r="U91" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92">
@@ -47567,126 +48144,131 @@
         <v>284</v>
       </c>
       <c r="U92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="U117" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -38,7 +38,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39488" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39959" uniqueCount="521">
   <si>
     <t>jira</t>
   </si>
@@ -1619,13 +1619,19 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1233" x14ac:knownFonts="1">
+  <fonts count="1249" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9414,8 +9420,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2161">
+  <fills count="2188">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21657,8 +21764,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2119">
+  <borders count="2147">
     <border>
       <left/>
       <right/>
@@ -34754,6 +35014,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -42509,7 +43051,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1258">
+  <cellXfs count="1274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -46256,49 +46798,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1218" fillId="2136" borderId="2098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2098" fillId="2136" fontId="1218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1220" fillId="2139" borderId="2102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2102" fillId="2139" fontId="1220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1221" fillId="2142" borderId="2106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2106" fillId="2142" fontId="1221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1222" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1223" fillId="2145" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2145" fontId="1223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1224" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1225" fillId="2148" borderId="2110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1226" fillId="2151" borderId="2114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1227" fillId="2154" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1228" fillId="2154" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1229" fillId="2157" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1230" fillId="2160" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1231" fillId="2157" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1232" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2110" fillId="2148" fontId="1225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2114" fillId="2151" fontId="1226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2118" fillId="2154" fontId="1227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2118" fillId="2154" fontId="1228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2157" fontId="1229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2160" fontId="1230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2157" fontId="1231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1233" fillId="2163" borderId="2126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1235" fillId="2166" borderId="2130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1236" fillId="2169" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1237" fillId="2172" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1239" fillId="2175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1241" fillId="2178" borderId="2138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1242" fillId="2181" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1243" fillId="2184" borderId="2146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1244" fillId="2184" borderId="2146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1245" fillId="2172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1246" fillId="2187" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1247" fillId="2172" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1248" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -46959,7 +47549,7 @@
         <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>519</v>
       </c>
       <c r="K5" t="s">
         <v>90</v>
@@ -47018,7 +47608,7 @@
         <v>509</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -47074,7 +47664,7 @@
         <v>505</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>323</v>
@@ -47130,7 +47720,7 @@
         <v>340</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
@@ -47183,7 +47773,7 @@
         <v>341</v>
       </c>
       <c r="I9" t="s">
-        <v>431</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -47224,7 +47814,7 @@
         <v>510</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
@@ -47262,7 +47852,7 @@
         <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>498</v>
@@ -47297,7 +47887,7 @@
         <v>335</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
@@ -47329,7 +47919,7 @@
         <v>336</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
         <v>42</v>
@@ -47361,7 +47951,7 @@
         <v>337</v>
       </c>
       <c r="I14" t="s">
-        <v>515</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -47390,7 +47980,7 @@
         <v>271</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>515</v>
       </c>
       <c r="M15" t="s">
         <v>99</v>
@@ -47416,7 +48006,7 @@
         <v>328</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16" t="s">
         <v>258</v>
@@ -47439,10 +48029,13 @@
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>421</v>
+        <v>87</v>
       </c>
       <c r="U17" t="s">
         <v>108</v>
+      </c>
+      <c r="X17" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="18">
@@ -47456,7 +48049,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="U18" t="s">
         <v>109</v>
@@ -47473,7 +48066,7 @@
         <v>302</v>
       </c>
       <c r="I19" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s">
         <v>110</v>
@@ -47490,7 +48083,7 @@
         <v>303</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>433</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -47507,7 +48100,7 @@
         <v>304</v>
       </c>
       <c r="I21" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -47524,7 +48117,7 @@
         <v>305</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="U22" t="s">
         <v>113</v>
@@ -47541,7 +48134,7 @@
         <v>296</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U23" t="s">
         <v>114</v>
@@ -47556,6 +48149,9 @@
       </c>
       <c r="E24" t="s">
         <v>285</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
       </c>
       <c r="U24" t="s">
         <v>115</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -16,37 +16,38 @@
     <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39959" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40434" uniqueCount="524">
   <si>
     <t>jira</t>
   </si>
@@ -1625,13 +1626,22 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1249" x14ac:knownFonts="1">
+  <fonts count="1265" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9521,8 +9531,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2188">
+  <fills count="2215">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21917,8 +22028,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2147">
+  <borders count="2175">
     <border>
       <left/>
       <right/>
@@ -35014,6 +35278,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -43051,7 +43597,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1274">
+  <cellXfs count="1290">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -46843,52 +47389,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1233" fillId="2163" borderId="2126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2126" fillId="2163" fontId="1233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1234" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1235" fillId="2166" borderId="2130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2130" fillId="2166" fontId="1235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1236" fillId="2169" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2134" fillId="2169" fontId="1236" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1237" fillId="2172" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2134" fillId="2172" fontId="1237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1238" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1239" fillId="2175" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2175" fontId="1239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1240" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1241" fillId="2178" borderId="2138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1242" fillId="2181" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1243" fillId="2184" borderId="2146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1244" fillId="2184" borderId="2146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1245" fillId="2172" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1246" fillId="2187" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1247" fillId="2172" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1248" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2138" fillId="2178" fontId="1241" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2142" fillId="2181" fontId="1242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2146" fillId="2184" fontId="1243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2146" fillId="2184" fontId="1244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2172" fontId="1245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2187" fontId="1246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2172" fontId="1247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1249" fillId="2190" borderId="2154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1251" fillId="2193" borderId="2158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1252" fillId="2196" borderId="2162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1253" fillId="2199" borderId="2162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1255" fillId="2202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1257" fillId="2205" borderId="2166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1258" fillId="2208" borderId="2170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1259" fillId="2211" borderId="2174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1260" fillId="2211" borderId="2174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1261" fillId="2199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1262" fillId="2214" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1263" fillId="2199" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1264" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -47210,7 +47804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -47229,75 +47823,78 @@
         <v>412</v>
       </c>
       <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>360</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>201</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>443</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>468</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>458</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>396</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>439</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>59</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>470</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -47309,1562 +47906,1571 @@
         <v>413</v>
       </c>
       <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>507</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>363</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>323</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>425</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>477</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>457</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>478</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>259</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>223</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>444</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>469</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>467</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>422</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>440</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>175</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>180</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>187</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>488</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
         <v>414</v>
       </c>
       <c r="C3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" t="s">
         <v>516</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>406</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>364</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>354</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>479</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>246</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>224</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>445</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>461</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>423</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>441</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>101</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>176</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>181</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>404</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>189</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>415</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>428</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>508</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>365</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>244</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>247</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>225</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>446</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>464</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>398</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>442</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>391</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>177</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>182</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>189</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>471</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>416</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>517</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>496</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>349</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>514</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>361</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>519</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>248</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>226</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>447</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>465</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>399</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>392</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>178</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>183</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>190</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>472</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>417</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>429</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>509</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>249</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>432</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>448</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>102</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>502</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>184</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>191</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>473</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>418</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>230</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>407</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>505</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>323</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>250</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>459</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>449</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>400</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>503</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>185</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>192</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>474</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>419</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>330</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>408</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>340</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>251</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>450</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>402</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>179</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>186</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>193</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>475</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
         <v>420</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>314</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>341</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>252</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>451</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>403</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>215</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>194</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" t="s">
+        <v>510</v>
+      </c>
+      <c r="J10" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>489</v>
+      </c>
+      <c r="O10" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>452</v>
+      </c>
+      <c r="V10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>345</v>
       </c>
-      <c r="C10" t="s">
-        <v>323</v>
+      <c r="D11" t="s">
+        <v>261</v>
       </c>
-      <c r="E10" t="s">
-        <v>389</v>
+      <c r="F11" t="s">
+        <v>280</v>
       </c>
-      <c r="F10" t="s">
-        <v>510</v>
+      <c r="G11" t="s">
+        <v>334</v>
       </c>
-      <c r="I10" t="s">
-        <v>431</v>
+      <c r="J11" t="s">
+        <v>19</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
+      <c r="L11" t="s">
+        <v>498</v>
       </c>
-      <c r="M10" t="s">
-        <v>489</v>
+      <c r="N11" t="s">
+        <v>96</v>
       </c>
-      <c r="N10" t="s">
-        <v>253</v>
+      <c r="O11" t="s">
+        <v>254</v>
       </c>
-      <c r="P10" t="s">
-        <v>452</v>
+      <c r="V11" t="s">
+        <v>264</v>
       </c>
-      <c r="U10" t="s">
-        <v>263</v>
+      <c r="Y11" t="s">
+        <v>265</v>
       </c>
-      <c r="X10" t="s">
-        <v>195</v>
+      <c r="AA11" t="s">
+        <v>243</v>
       </c>
-      <c r="Z10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>261</v>
+      <c r="D12" t="s">
+        <v>331</v>
       </c>
-      <c r="E11" t="s">
-        <v>280</v>
+      <c r="F12" t="s">
+        <v>269</v>
       </c>
-      <c r="F11" t="s">
-        <v>334</v>
+      <c r="G12" t="s">
+        <v>335</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
+      <c r="J12" t="s">
+        <v>44</v>
       </c>
-      <c r="K11" t="s">
-        <v>498</v>
+      <c r="L12" t="s">
+        <v>41</v>
       </c>
-      <c r="M11" t="s">
-        <v>96</v>
+      <c r="N12" t="s">
+        <v>43</v>
       </c>
-      <c r="N11" t="s">
-        <v>254</v>
+      <c r="O12" t="s">
+        <v>255</v>
       </c>
-      <c r="U11" t="s">
-        <v>264</v>
+      <c r="V12" t="s">
+        <v>105</v>
       </c>
-      <c r="X11" t="s">
-        <v>265</v>
+      <c r="Y12" t="s">
+        <v>196</v>
       </c>
-      <c r="Z11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>201</v>
       </c>
-      <c r="C12" t="s">
-        <v>331</v>
+      <c r="D13" t="s">
+        <v>354</v>
       </c>
-      <c r="E12" t="s">
-        <v>269</v>
+      <c r="F13" t="s">
+        <v>325</v>
       </c>
-      <c r="F12" t="s">
-        <v>335</v>
+      <c r="G13" t="s">
+        <v>336</v>
       </c>
-      <c r="I12" t="s">
-        <v>44</v>
+      <c r="J13" t="s">
+        <v>84</v>
       </c>
-      <c r="K12" t="s">
-        <v>41</v>
+      <c r="L13" t="s">
+        <v>42</v>
       </c>
-      <c r="M12" t="s">
-        <v>43</v>
+      <c r="N13" t="s">
+        <v>97</v>
       </c>
-      <c r="N12" t="s">
-        <v>255</v>
+      <c r="O13" t="s">
+        <v>260</v>
       </c>
-      <c r="U12" t="s">
-        <v>105</v>
+      <c r="V13" t="s">
+        <v>338</v>
       </c>
-      <c r="X12" t="s">
-        <v>196</v>
+      <c r="Y13" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>354</v>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
-      <c r="E13" t="s">
-        <v>325</v>
+      <c r="F14" t="s">
+        <v>270</v>
       </c>
-      <c r="F13" t="s">
-        <v>336</v>
+      <c r="G14" t="s">
+        <v>337</v>
       </c>
-      <c r="I13" t="s">
-        <v>84</v>
+      <c r="J14" t="s">
+        <v>85</v>
       </c>
-      <c r="K13" t="s">
-        <v>42</v>
+      <c r="L14" t="s">
+        <v>45</v>
       </c>
-      <c r="M13" t="s">
-        <v>97</v>
+      <c r="N14" t="s">
+        <v>98</v>
       </c>
-      <c r="N13" t="s">
-        <v>260</v>
+      <c r="O14" t="s">
+        <v>256</v>
       </c>
-      <c r="U13" t="s">
-        <v>338</v>
+      <c r="V14" t="s">
+        <v>106</v>
       </c>
-      <c r="X13" t="s">
-        <v>197</v>
+      <c r="Y14" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>245</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
+      <c r="D15" t="s">
+        <v>62</v>
       </c>
-      <c r="E14" t="s">
-        <v>270</v>
+      <c r="F15" t="s">
+        <v>271</v>
       </c>
-      <c r="F14" t="s">
-        <v>337</v>
+      <c r="J15" t="s">
+        <v>515</v>
       </c>
-      <c r="I14" t="s">
-        <v>85</v>
+      <c r="N15" t="s">
+        <v>99</v>
       </c>
-      <c r="K14" t="s">
-        <v>45</v>
+      <c r="O15" t="s">
+        <v>257</v>
       </c>
-      <c r="M14" t="s">
-        <v>98</v>
+      <c r="V15" t="s">
+        <v>107</v>
       </c>
-      <c r="N14" t="s">
-        <v>256</v>
+      <c r="Y15" t="s">
+        <v>199</v>
       </c>
-      <c r="U14" t="s">
-        <v>106</v>
-      </c>
-      <c r="X14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
+      <c r="D16" t="s">
+        <v>426</v>
       </c>
-      <c r="E15" t="s">
-        <v>271</v>
+      <c r="F16" t="s">
+        <v>328</v>
       </c>
-      <c r="I15" t="s">
-        <v>515</v>
+      <c r="J16" t="s">
+        <v>86</v>
       </c>
-      <c r="M15" t="s">
-        <v>99</v>
+      <c r="O16" t="s">
+        <v>258</v>
       </c>
-      <c r="N15" t="s">
-        <v>257</v>
+      <c r="V16" t="s">
+        <v>78</v>
       </c>
-      <c r="U15" t="s">
-        <v>107</v>
+      <c r="Y16" t="s">
+        <v>200</v>
       </c>
-      <c r="X15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>443</v>
       </c>
-      <c r="C16" t="s">
-        <v>426</v>
+      <c r="D17" t="s">
+        <v>427</v>
       </c>
-      <c r="E16" t="s">
-        <v>328</v>
+      <c r="F17" t="s">
+        <v>92</v>
       </c>
-      <c r="I16" t="s">
-        <v>86</v>
+      <c r="J17" t="s">
+        <v>87</v>
       </c>
-      <c r="N16" t="s">
-        <v>258</v>
+      <c r="V17" t="s">
+        <v>108</v>
       </c>
-      <c r="U16" t="s">
-        <v>78</v>
+      <c r="Y17" t="s">
+        <v>520</v>
       </c>
-      <c r="X16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>468</v>
       </c>
-      <c r="C17" t="s">
-        <v>427</v>
+      <c r="D18" t="s">
+        <v>456</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
+      <c r="F18" t="s">
+        <v>93</v>
       </c>
-      <c r="I17" t="s">
-        <v>87</v>
+      <c r="J18" t="s">
+        <v>421</v>
       </c>
-      <c r="U17" t="s">
-        <v>108</v>
+      <c r="V18" t="s">
+        <v>109</v>
       </c>
-      <c r="X17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>458</v>
       </c>
-      <c r="C18" t="s">
-        <v>456</v>
+      <c r="D19" t="s">
+        <v>63</v>
       </c>
-      <c r="E18" t="s">
-        <v>93</v>
+      <c r="F19" t="s">
+        <v>302</v>
       </c>
-      <c r="I18" t="s">
-        <v>421</v>
+      <c r="J19" t="s">
+        <v>46</v>
       </c>
-      <c r="U18" t="s">
-        <v>109</v>
+      <c r="V19" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>396</v>
       </c>
-      <c r="C19" t="s">
-        <v>63</v>
+      <c r="D20" t="s">
+        <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>302</v>
+      <c r="F20" t="s">
+        <v>303</v>
       </c>
-      <c r="I19" t="s">
-        <v>46</v>
+      <c r="J20" t="s">
+        <v>433</v>
       </c>
-      <c r="U19" t="s">
-        <v>110</v>
+      <c r="V20" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>439</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
+      <c r="D21" t="s">
+        <v>262</v>
       </c>
-      <c r="E20" t="s">
-        <v>303</v>
+      <c r="F21" t="s">
+        <v>304</v>
       </c>
-      <c r="I20" t="s">
-        <v>433</v>
+      <c r="J21" t="s">
+        <v>88</v>
       </c>
-      <c r="U20" t="s">
-        <v>111</v>
+      <c r="V21" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
-        <v>262</v>
+      <c r="D22" t="s">
+        <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>304</v>
+      <c r="F22" t="s">
+        <v>305</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
+      <c r="J22" t="s">
+        <v>497</v>
       </c>
-      <c r="U21" t="s">
-        <v>112</v>
+      <c r="V22" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
+      <c r="D23" t="s">
+        <v>333</v>
       </c>
-      <c r="E22" t="s">
-        <v>305</v>
+      <c r="F23" t="s">
+        <v>296</v>
       </c>
-      <c r="I22" t="s">
-        <v>497</v>
+      <c r="J23" t="s">
+        <v>47</v>
       </c>
-      <c r="U22" t="s">
-        <v>113</v>
+      <c r="V23" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>333</v>
+      <c r="D24" t="s">
+        <v>66</v>
       </c>
-      <c r="E23" t="s">
-        <v>296</v>
+      <c r="F24" t="s">
+        <v>285</v>
       </c>
-      <c r="I23" t="s">
-        <v>47</v>
+      <c r="J24" t="s">
+        <v>48</v>
       </c>
-      <c r="U23" t="s">
-        <v>114</v>
+      <c r="V24" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
-        <v>66</v>
+      <c r="D25" t="s">
+        <v>506</v>
       </c>
-      <c r="E24" t="s">
-        <v>285</v>
+      <c r="F25" t="s">
+        <v>79</v>
       </c>
-      <c r="I24" t="s">
-        <v>48</v>
+      <c r="V25" t="s">
+        <v>116</v>
       </c>
-      <c r="U24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>470</v>
       </c>
-      <c r="C25" t="s">
-        <v>506</v>
+      <c r="D26" t="s">
+        <v>231</v>
       </c>
-      <c r="E25" t="s">
-        <v>79</v>
+      <c r="F26" t="s">
+        <v>288</v>
       </c>
-      <c r="U25" t="s">
-        <v>116</v>
+      <c r="V26" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>233</v>
       </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" t="s">
-        <v>288</v>
-      </c>
-      <c r="U26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>232</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>272</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>466</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>289</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>290</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>222</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>281</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>70</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>291</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>266</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>72</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>342</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>315</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>74</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>267</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>316</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>273</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>81</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>218</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>295</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>306</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>307</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>356</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>355</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>217</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>332</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>352</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>409</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>309</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>393</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>343</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>274</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>298</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>299</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>300</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>310</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>320</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>350</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>317</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>318</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>410</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>411</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>358</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>321</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>275</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>390</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>322</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>453</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>312</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>454</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>268</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>357</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>286</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>292</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>297</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>476</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>344</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>276</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>287</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>293</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>282</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>277</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>294</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>278</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>279</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>313</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>319</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>301</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>353</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>283</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>284</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40434" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40910" uniqueCount="526">
   <si>
     <t>jira</t>
   </si>
@@ -1635,13 +1635,19 @@
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1265" x14ac:knownFonts="1">
+  <fonts count="1281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9632,8 +9638,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="2215">
+  <fills count="2242">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22181,8 +22288,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2175">
+  <borders count="2203">
     <border>
       <left/>
       <right/>
@@ -35278,6 +35538,288 @@
       </top>
       <bottom style="thin">
         <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
       </bottom>
     </border>
     <border>
@@ -43597,7 +44139,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1290">
+  <cellXfs count="1306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -47437,52 +47979,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="1248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1249" fillId="2190" borderId="2154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2154" fillId="2190" fontId="1249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1250" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1251" fillId="2193" borderId="2158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2158" fillId="2193" fontId="1251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1252" fillId="2196" borderId="2162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2162" fillId="2196" fontId="1252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1253" fillId="2199" borderId="2162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2162" fillId="2199" fontId="1253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1254" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1255" fillId="2202" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2202" fontId="1255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1256" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1257" fillId="2205" borderId="2166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1258" fillId="2208" borderId="2170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1259" fillId="2211" borderId="2174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1260" fillId="2211" borderId="2174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1261" fillId="2199" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1262" fillId="2214" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1263" fillId="2199" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1264" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2166" fillId="2205" fontId="1257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2170" fillId="2208" fontId="1258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2174" fillId="2211" fontId="1259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2174" fillId="2211" fontId="1260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2199" fontId="1261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2214" fontId="1262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2199" fontId="1263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1265" fillId="2217" borderId="2182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1267" fillId="2220" borderId="2186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1268" fillId="2223" borderId="2190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1269" fillId="2226" borderId="2190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1271" fillId="2229" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1273" fillId="2232" borderId="2194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1274" fillId="2235" borderId="2198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1275" fillId="2238" borderId="2202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1276" fillId="2238" borderId="2202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1277" fillId="2226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1278" fillId="2241" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1279" fillId="2226" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -47804,7 +48394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -47906,7 +48496,7 @@
         <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -49018,7 +49608,7 @@
         <v>393</v>
       </c>
       <c r="V51" t="s">
-        <v>134</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52">
@@ -49026,7 +49616,7 @@
         <v>343</v>
       </c>
       <c r="V52" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53">
@@ -49034,7 +49624,7 @@
         <v>274</v>
       </c>
       <c r="V53" t="s">
-        <v>518</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54">
@@ -49042,7 +49632,7 @@
         <v>298</v>
       </c>
       <c r="V54" t="s">
-        <v>135</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55">
@@ -49050,7 +49640,7 @@
         <v>299</v>
       </c>
       <c r="V55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -49058,7 +49648,7 @@
         <v>300</v>
       </c>
       <c r="V56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -49066,7 +49656,7 @@
         <v>310</v>
       </c>
       <c r="V57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -49074,7 +49664,7 @@
         <v>320</v>
       </c>
       <c r="V58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -49082,7 +49672,7 @@
         <v>350</v>
       </c>
       <c r="V59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -49090,7 +49680,7 @@
         <v>317</v>
       </c>
       <c r="V60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -49098,7 +49688,7 @@
         <v>318</v>
       </c>
       <c r="V61" t="s">
-        <v>495</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
@@ -49106,7 +49696,7 @@
         <v>410</v>
       </c>
       <c r="V62" t="s">
-        <v>220</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63">
@@ -49114,7 +49704,7 @@
         <v>411</v>
       </c>
       <c r="V63" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64">
@@ -49122,7 +49712,7 @@
         <v>358</v>
       </c>
       <c r="V64" t="s">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65">
@@ -49130,7 +49720,7 @@
         <v>321</v>
       </c>
       <c r="V65" t="s">
-        <v>142</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66">
@@ -49138,7 +49728,7 @@
         <v>275</v>
       </c>
       <c r="V66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -49146,7 +49736,7 @@
         <v>390</v>
       </c>
       <c r="V67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -49154,7 +49744,7 @@
         <v>322</v>
       </c>
       <c r="V68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69">
@@ -49162,7 +49752,7 @@
         <v>453</v>
       </c>
       <c r="V69" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
@@ -49170,7 +49760,7 @@
         <v>312</v>
       </c>
       <c r="V70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
@@ -49178,7 +49768,7 @@
         <v>454</v>
       </c>
       <c r="V71" t="s">
-        <v>513</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72">
@@ -49186,7 +49776,7 @@
         <v>268</v>
       </c>
       <c r="V72" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73">
@@ -49194,7 +49784,7 @@
         <v>357</v>
       </c>
       <c r="V73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -49202,7 +49792,7 @@
         <v>286</v>
       </c>
       <c r="V74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -49210,7 +49800,7 @@
         <v>292</v>
       </c>
       <c r="V75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -49218,7 +49808,7 @@
         <v>297</v>
       </c>
       <c r="V76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77">
@@ -49226,7 +49816,7 @@
         <v>476</v>
       </c>
       <c r="V77" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78">
@@ -49234,7 +49824,7 @@
         <v>344</v>
       </c>
       <c r="V78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
@@ -49242,7 +49832,7 @@
         <v>276</v>
       </c>
       <c r="V79" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -49250,7 +49840,7 @@
         <v>287</v>
       </c>
       <c r="V80" t="s">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81">
@@ -49258,7 +49848,7 @@
         <v>293</v>
       </c>
       <c r="V81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -49266,7 +49856,7 @@
         <v>282</v>
       </c>
       <c r="V82" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -49274,7 +49864,7 @@
         <v>277</v>
       </c>
       <c r="V83" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84">
@@ -49282,7 +49872,7 @@
         <v>294</v>
       </c>
       <c r="V84" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
@@ -49290,7 +49880,7 @@
         <v>278</v>
       </c>
       <c r="V85" t="s">
-        <v>492</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -49298,7 +49888,7 @@
         <v>279</v>
       </c>
       <c r="V86" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
@@ -49306,7 +49896,7 @@
         <v>313</v>
       </c>
       <c r="V87" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88">
@@ -49314,7 +49904,7 @@
         <v>319</v>
       </c>
       <c r="V88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -49322,7 +49912,7 @@
         <v>301</v>
       </c>
       <c r="V89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -49330,7 +49920,7 @@
         <v>353</v>
       </c>
       <c r="V90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -49338,7 +49928,7 @@
         <v>283</v>
       </c>
       <c r="V91" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -49346,131 +49936,136 @@
         <v>284</v>
       </c>
       <c r="V92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="V93" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2003,8 +2009,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2482,8 +2690,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3367,6 +3881,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3374,7 +4452,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3603,52 +4681,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4690,7 +5864,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -4725,7 +5899,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -4757,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>515</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -4789,7 +5963,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -4817,6 +5991,9 @@
       <c r="J15" t="s">
         <v>481</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -4842,6 +6019,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1616,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2211,8 +2220,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2996,8 +3106,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4445,6 +4708,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4452,7 +4997,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4777,52 +5322,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5207,7 +5800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5806,7 +6399,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
@@ -5844,7 +6437,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11">
@@ -5879,7 +6472,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -5913,6 +6506,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5945,6 +6541,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6535,7 +7134,7 @@
         <v>394</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64">
@@ -6543,7 +7142,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -6551,7 +7150,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66">
@@ -6559,7 +7158,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67">
@@ -6567,7 +7166,7 @@
         <v>377</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -6575,7 +7174,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -6583,7 +7182,7 @@
         <v>435</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -6591,7 +7190,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -6599,7 +7198,7 @@
         <v>436</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -6607,7 +7206,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -6615,7 +7214,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74">
@@ -6623,7 +7222,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75">
@@ -6631,7 +7230,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -6639,7 +7238,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -6647,7 +7246,7 @@
         <v>454</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -6655,7 +7254,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -6663,7 +7262,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -6671,7 +7270,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -6679,7 +7278,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -6687,7 +7286,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83">
@@ -6695,7 +7294,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -6703,7 +7302,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -6711,7 +7310,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -6719,7 +7318,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -6727,7 +7326,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -6735,7 +7334,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89">
@@ -6743,7 +7342,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90">
@@ -6751,7 +7350,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -6759,7 +7358,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -6767,141 +7366,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -27,30 +27,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1625,6 +1626,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1657,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2321,8 +2346,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3259,8 +3385,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4990,6 +5269,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4997,7 +5558,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5370,52 +5931,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5800,7 +6409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5849,48 +6458,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>446</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>439</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>381</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>421</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>448</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5932,48 +6544,51 @@
         <v>455</v>
       </c>
       <c r="M2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N2" t="s">
         <v>438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>456</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>426</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>447</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>445</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>405</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>422</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>458</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6000,7 +6615,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>521</v>
       </c>
       <c r="I3" t="s">
         <v>351</v>
@@ -6014,43 +6629,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>524</v>
+      </c>
+      <c r="O3" t="s">
         <v>457</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>427</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>441</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>406</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>423</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>388</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6073,6 +6691,9 @@
       <c r="G4" t="s">
         <v>475</v>
       </c>
+      <c r="H4" t="s">
+        <v>522</v>
+      </c>
       <c r="I4" t="s">
         <v>352</v>
       </c>
@@ -6085,43 +6706,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>525</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>428</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>442</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>382</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>424</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>378</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>449</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6153,40 +6777,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>429</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>443</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>383</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>379</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>450</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6215,37 +6839,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>415</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>430</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>385</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>470</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>451</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6271,37 +6895,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>440</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>431</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>384</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>471</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>452</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6327,34 +6951,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>432</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>386</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>453</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6380,25 +7004,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>433</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>387</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6421,22 +7045,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>459</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>434</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6459,19 +7083,19 @@
       <c r="L11" t="s">
         <v>516</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6494,25 +7118,25 @@
       <c r="L12" t="s">
         <v>466</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>520</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -6529,25 +7153,25 @@
       <c r="L13" t="s">
         <v>515</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -6564,22 +7188,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -6593,22 +7217,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>409</v>
@@ -6622,19 +7246,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>410</v>
@@ -6645,16 +7269,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
         <v>437</v>
@@ -6665,13 +7289,13 @@
       <c r="J18" t="s">
         <v>404</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -6682,13 +7306,13 @@
       <c r="J19" t="s">
         <v>514</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -6699,13 +7323,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -6716,13 +7340,13 @@
       <c r="J21" t="s">
         <v>416</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -6733,13 +7357,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -6750,13 +7374,13 @@
       <c r="J23" t="s">
         <v>465</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -6767,13 +7391,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>473</v>
@@ -6784,13 +7408,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -6798,13 +7422,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -6812,18 +7436,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>512</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6834,7 +7461,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6845,7 +7472,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6856,7 +7483,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6867,7 +7494,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6878,7 +7505,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6889,7 +7516,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6900,7 +7527,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6911,7 +7538,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6922,7 +7549,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6933,7 +7560,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6941,7 +7568,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6949,7 +7576,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6957,7 +7584,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6965,7 +7592,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6973,7 +7600,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6981,7 +7608,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6989,7 +7616,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6997,7 +7624,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7005,7 +7632,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7013,7 +7640,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7021,7 +7648,7 @@
       <c r="F49" t="s">
         <v>392</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7029,7 +7656,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7037,475 +7664,485 @@
       <c r="F51" t="s">
         <v>380</v>
       </c>
-      <c r="V51" t="s">
-        <v>490</v>
+      <c r="W51" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>484</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>393</v>
       </c>
-      <c r="V62" t="s">
-        <v>463</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>394</v>
       </c>
-      <c r="V63" t="s">
-        <v>517</v>
+      <c r="W63" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>413</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>468</v>
+      <c r="W66" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>377</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>435</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>436</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>479</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>511</v>
+      <c r="W74" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>454</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>478</v>
+      <c r="W82" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>461</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>462</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1650,6 +1650,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2447,8 +2450,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3538,8 +3642,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5551,6 +5808,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5558,7 +6097,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5979,52 +6518,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7341,7 +7928,7 @@
         <v>416</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4529" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1660,7 +1660,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2551,8 +2551,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3795,8 +3896,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6090,6 +6344,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6097,7 +6633,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6566,52 +7102,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -21,37 +21,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6511" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1653,6 +1654,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2652,8 +2668,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4049,8 +4368,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -6626,6 +7404,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6633,7 +8257,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7150,52 +8774,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="162" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7580,7 +9348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7602,78 +9370,81 @@
         <v>487</v>
       </c>
       <c r="D1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>520</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>446</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>439</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>381</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>421</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>448</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7688,78 +9459,81 @@
         <v>489</v>
       </c>
       <c r="D2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>474</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>510</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>408</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>455</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>523</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>438</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>456</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>447</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>445</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>405</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>422</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>458</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7774,1546 +9548,1558 @@
         <v>488</v>
       </c>
       <c r="D3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E3" t="s">
         <v>482</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>389</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>521</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>351</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>524</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>457</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>427</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>441</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>406</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>423</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>388</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
         <v>398</v>
       </c>
       <c r="D4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>411</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>475</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>522</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>352</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>525</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>428</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>442</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>382</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>424</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>378</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>449</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>399</v>
       </c>
       <c r="D5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E5" t="s">
         <v>483</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>464</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>480</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>353</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>429</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>443</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>383</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>379</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>450</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>400</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>412</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>476</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>415</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>430</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>385</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>470</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>451</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>401</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>390</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>472</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>440</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>431</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>384</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>471</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>452</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>402</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>391</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>432</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>386</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>453</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>403</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>433</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>387</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>376</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>477</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>414</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>459</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>434</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>516</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>466</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>515</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>481</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>409</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>410</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>437</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>404</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>514</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>381</v>
-      </c>
-      <c r="D21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>416</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>465</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>473</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>448</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>512</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>513</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>444</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>392</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>380</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>393</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>394</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>377</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>435</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>436</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>454</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -50,7 +50,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6511" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7016" uniqueCount="539">
   <si>
     <t>description</t>
   </si>
@@ -1669,6 +1669,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1691,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="220" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2971,8 +2986,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4827,8 +4943,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8250,6 +8519,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8257,7 +8808,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8918,52 +9469,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9534,7 +10133,7 @@
         <v>458</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3">
@@ -9617,7 +10216,7 @@
         <v>185</v>
       </c>
       <c r="AC3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -9697,7 +10296,7 @@
         <v>449</v>
       </c>
       <c r="AC4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -9765,7 +10364,7 @@
         <v>450</v>
       </c>
       <c r="AC5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -9824,7 +10423,7 @@
         <v>451</v>
       </c>
       <c r="AC6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -9880,7 +10479,7 @@
         <v>452</v>
       </c>
       <c r="AC7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -9933,7 +10532,7 @@
         <v>453</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -9977,7 +10576,7 @@
         <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>518</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -10015,7 +10614,7 @@
         <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11">
@@ -10050,7 +10649,7 @@
         <v>260</v>
       </c>
       <c r="AC11" t="s">
-        <v>236</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12">
@@ -10085,7 +10684,7 @@
         <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>237</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10719,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>238</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14">
@@ -10154,6 +10753,9 @@
       <c r="AA14" t="s">
         <v>194</v>
       </c>
+      <c r="AC14" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -10183,6 +10785,9 @@
       <c r="AA15" t="s">
         <v>195</v>
       </c>
+      <c r="AC15" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -10209,6 +10814,9 @@
       <c r="AA16" t="s">
         <v>196</v>
       </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -10229,6 +10837,9 @@
       <c r="AA17" t="s">
         <v>486</v>
       </c>
+      <c r="AC17" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -10245,6 +10856,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7016" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1684,6 +1684,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1703,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="220" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3087,8 +3099,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5096,8 +5209,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8801,6 +9067,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8808,7 +9356,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9517,52 +10065,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9947,7 +10543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10719,7 +11315,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14">
@@ -10754,7 +11350,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15">
@@ -10786,7 +11382,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16">
@@ -10815,7 +11411,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17">
@@ -10838,7 +11434,7 @@
         <v>486</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18">
@@ -10858,7 +11454,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19">
@@ -10877,6 +11473,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -10894,6 +11493,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -10911,6 +11513,9 @@
       <c r="X21" t="s">
         <v>528</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -11460,7 +12065,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80">
@@ -11468,7 +12073,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -11476,7 +12081,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -11484,7 +12089,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>527</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -11492,7 +12097,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84">
@@ -11500,7 +12105,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -11508,7 +12113,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86">
@@ -11516,7 +12121,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -11524,7 +12129,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -11532,7 +12137,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -11540,7 +12145,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -11548,7 +12153,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -11556,7 +12161,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92">
@@ -11564,156 +12169,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -36,7 +36,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8546" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1696,6 +1696,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3200,8 +3209,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5362,8 +5573,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9349,6 +9866,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9356,7 +10437,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10113,52 +11194,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10543,7 +11720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11370,7 +12547,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>543</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -11401,6 +12578,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>544</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -11428,7 +12608,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>545</v>
       </c>
       <c r="AA17" t="s">
         <v>486</v>
@@ -11451,7 +12631,7 @@
         <v>404</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>542</v>
@@ -11471,7 +12651,7 @@
         <v>514</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -11491,7 +12671,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -11511,7 +12691,7 @@
         <v>416</v>
       </c>
       <c r="X21" t="s">
-        <v>528</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -11531,7 +12711,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23">
@@ -11548,7 +12728,7 @@
         <v>465</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -11565,7 +12745,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -11582,7 +12762,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -11596,7 +12776,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -11610,7 +12790,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -11624,7 +12804,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -11638,7 +12818,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -11649,7 +12829,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -11660,7 +12840,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -11671,7 +12851,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -11682,7 +12862,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -11693,7 +12873,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -11704,7 +12884,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -11715,7 +12895,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -11726,7 +12906,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>460</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -11737,7 +12917,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39">
@@ -11745,7 +12925,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40">
@@ -11753,7 +12933,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -11761,7 +12941,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -11769,7 +12949,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -11777,7 +12957,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -11785,7 +12965,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -11793,7 +12973,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>467</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -11801,7 +12981,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47">
@@ -11809,7 +12989,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -11817,7 +12997,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -11825,7 +13005,7 @@
         <v>392</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -11833,7 +13013,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -11841,7 +13021,7 @@
         <v>380</v>
       </c>
       <c r="X51" t="s">
-        <v>526</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -11849,7 +13029,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53">
@@ -11857,7 +13037,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54">
@@ -11865,7 +13045,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -11873,7 +13053,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>484</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -11881,7 +13061,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
@@ -11889,7 +13069,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -11897,7 +13077,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -11905,7 +13085,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -11913,7 +13093,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -11921,7 +13101,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -11929,7 +13109,7 @@
         <v>393</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -11937,7 +13117,7 @@
         <v>394</v>
       </c>
       <c r="X63" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -11945,7 +13125,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65">
@@ -11953,7 +13133,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66">
@@ -11961,7 +13141,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -11969,7 +13149,7 @@
         <v>377</v>
       </c>
       <c r="X67" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68">
@@ -11977,7 +13157,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69">
@@ -11985,7 +13165,7 @@
         <v>435</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -11993,7 +13173,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -12001,7 +13181,7 @@
         <v>436</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -12009,7 +13189,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -12017,7 +13197,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -12025,7 +13205,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -12033,7 +13213,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76">
@@ -12041,7 +13221,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77">
@@ -12049,7 +13229,7 @@
         <v>454</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -12057,7 +13237,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -12065,7 +13245,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>539</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -12073,7 +13253,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81">
@@ -12081,7 +13261,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -12089,7 +13269,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -12097,7 +13277,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>527</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -12105,7 +13285,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85">
@@ -12113,7 +13293,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -12121,7 +13301,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87">
@@ -12129,7 +13309,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -12137,7 +13317,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -12145,7 +13325,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -12153,7 +13333,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -12161,7 +13341,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -12169,161 +13349,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8546" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9569" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1706,13 +1706,16 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="300" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3411,8 +3414,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5879,8 +6084,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10430,6 +10941,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10437,7 +11512,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11290,52 +12365,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="274" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11720,7 +12891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13389,126 +14560,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -22,14 +22,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9569" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1709,13 +1709,25 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="300" x14ac:knownFonts="1">
+  <fonts count="316" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3616,8 +3628,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6390,8 +6503,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11505,6 +11771,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11512,7 +12060,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12461,52 +13009,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="290" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13321,6 +13917,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>547</v>
+      </c>
       <c r="G6" t="s">
         <v>412</v>
       </c>
@@ -13443,7 +14042,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>548</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -13496,7 +14095,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -13537,7 +14136,7 @@
         <v>477</v>
       </c>
       <c r="K10" t="s">
-        <v>414</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -13575,7 +14174,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>549</v>
       </c>
       <c r="M11" t="s">
         <v>516</v>
@@ -13610,7 +14209,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>414</v>
       </c>
       <c r="M12" t="s">
         <v>466</v>
@@ -13645,7 +14244,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>515</v>
@@ -13680,7 +14279,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -13712,7 +14311,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -13744,7 +14343,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -13776,7 +14375,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>545</v>
@@ -13799,7 +14398,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -13819,7 +14418,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>514</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -13839,7 +14438,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -13859,7 +14458,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -13879,7 +14478,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>514</v>
       </c>
       <c r="X22" t="s">
         <v>528</v>
@@ -13896,7 +14495,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -13913,7 +14512,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -13930,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -13946,6 +14545,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>465</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -13960,6 +14562,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -13973,6 +14578,9 @@
       </c>
       <c r="G28" t="s">
         <v>284</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>328</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10085" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10603" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1721,13 +1721,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="316" x14ac:knownFonts="1">
+  <fonts count="332" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3729,8 +3735,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6656,8 +6763,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -12053,6 +12313,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12060,7 +12602,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13057,52 +13599,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="306" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14638,7 +15228,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>551</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -14649,7 +15239,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -14660,7 +15250,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -14671,7 +15261,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -14682,7 +15272,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -14693,7 +15283,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>460</v>
@@ -14701,7 +15291,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>417</v>
@@ -14709,7 +15299,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -14717,7 +15307,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -14725,7 +15315,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -14733,7 +15323,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -14741,7 +15331,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -14749,7 +15339,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -14757,7 +15347,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>467</v>
@@ -14765,7 +15355,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -14773,7 +15363,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -14781,7 +15371,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -14789,7 +15379,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -14797,7 +15387,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -14805,7 +15395,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="X52" t="s">
         <v>526</v>
@@ -14813,7 +15403,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>490</v>
@@ -14821,7 +15411,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -14829,7 +15419,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -14837,7 +15427,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>484</v>
@@ -14845,7 +15435,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -14853,7 +15443,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -14861,7 +15451,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -14869,7 +15459,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -14877,7 +15467,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -14885,7 +15475,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -14893,7 +15483,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -14901,7 +15491,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="X64" t="s">
         <v>463</v>
@@ -14909,7 +15499,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>517</v>
@@ -14917,7 +15507,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -14925,7 +15515,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>413</v>
@@ -14933,7 +15523,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="X68" t="s">
         <v>468</v>
@@ -14941,7 +15531,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -14949,7 +15539,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -14957,7 +15547,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>436</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -14965,7 +15555,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>436</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -14973,7 +15563,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -14981,7 +15571,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>552</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -14989,7 +15579,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>479</v>
@@ -14997,7 +15587,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>511</v>
@@ -15005,7 +15595,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -15013,7 +15603,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -15021,7 +15611,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -15029,7 +15619,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>539</v>
@@ -15037,7 +15627,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -15045,7 +15635,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -15053,7 +15643,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -15061,7 +15651,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>527</v>
@@ -15069,7 +15659,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -15077,7 +15667,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>478</v>
@@ -15085,7 +15675,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -15093,7 +15683,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -15101,7 +15691,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -15109,7 +15699,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -15117,7 +15707,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -15125,18 +15715,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10603" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12163" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1727,13 +1727,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="332" x14ac:knownFonts="1">
+  <fonts count="380" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3836,8 +3842,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="634">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6916,8 +7225,518 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -12595,6 +13414,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12602,7 +14267,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13647,52 +15312,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="322" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="335" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="338" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="576" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="579" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="351" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="585" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="354" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="591" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="594" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="621" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="624" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14077,7 +15886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15769,126 +17578,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>469</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -32,27 +32,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12163" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12691" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1733,13 +1734,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="380" x14ac:knownFonts="1">
+  <fonts count="396" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4145,8 +4167,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="634">
+  <fills count="664">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7735,8 +7858,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14260,6 +14553,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14267,7 +14842,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15456,52 +16031,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="606" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="609" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="612" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="615" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="621" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="621" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="624" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="624" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="636" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="639" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="642" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="645" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="651" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="654" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="657" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="657" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15886,7 +16509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15938,51 +16561,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O1" t="s">
         <v>520</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>425</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>446</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>439</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>381</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>421</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>448</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16027,51 +16653,54 @@
         <v>455</v>
       </c>
       <c r="N2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O2" t="s">
         <v>523</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>438</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>456</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>426</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>447</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>445</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>405</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>422</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>458</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -16116,45 +16745,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>557</v>
+      </c>
+      <c r="O3" t="s">
         <v>524</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>457</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>427</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>441</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>406</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>423</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>388</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -16196,45 +16828,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>558</v>
+      </c>
+      <c r="O4" t="s">
         <v>525</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>428</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>442</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>382</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>424</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>378</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>449</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16269,40 +16904,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>429</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>443</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>383</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>379</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>450</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -16334,37 +16972,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>415</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>430</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>385</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>470</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>451</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -16390,37 +17031,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>440</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>431</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>384</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>471</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>452</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -16446,34 +17090,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>432</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>386</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>453</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -16499,25 +17143,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>433</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>387</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -16540,22 +17184,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>459</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>434</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>518</v>
       </c>
     </row>
@@ -16578,19 +17222,19 @@
       <c r="M11" t="s">
         <v>516</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16613,19 +17257,19 @@
       <c r="M12" t="s">
         <v>466</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>536</v>
       </c>
     </row>
@@ -16648,25 +17292,25 @@
       <c r="M13" t="s">
         <v>515</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -16683,25 +17327,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>520</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -16715,25 +17359,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>543</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>409</v>
@@ -16747,25 +17391,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>544</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>410</v>
@@ -16776,19 +17420,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>545</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>437</v>
@@ -16799,16 +17443,16 @@
       <c r="K18" t="s">
         <v>481</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -16819,16 +17463,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -16839,16 +17483,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -16859,16 +17503,16 @@
       <c r="K21" t="s">
         <v>404</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -16879,13 +17523,13 @@
       <c r="K22" t="s">
         <v>514</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -16896,13 +17540,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -16913,13 +17557,13 @@
       <c r="K24" t="s">
         <v>416</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>473</v>
@@ -16930,13 +17574,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -16947,13 +17591,13 @@
       <c r="K26" t="s">
         <v>465</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -16964,13 +17608,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>512</v>
@@ -16981,13 +17625,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="E29" t="s">
         <v>513</v>
@@ -16995,18 +17639,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>444</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -17017,7 +17664,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -17028,7 +17675,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -17039,7 +17686,7 @@
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -17050,7 +17697,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -17061,7 +17708,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -17072,7 +17719,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -17083,7 +17730,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -17094,7 +17741,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -17102,7 +17749,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>417</v>
       </c>
     </row>
@@ -17110,7 +17757,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -17118,7 +17765,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -17126,7 +17773,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -17134,7 +17781,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17142,7 +17789,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17150,7 +17797,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -17158,7 +17805,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>467</v>
       </c>
     </row>
@@ -17166,7 +17813,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -17174,7 +17821,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -17182,7 +17829,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -17190,7 +17837,7 @@
       <c r="G50" t="s">
         <v>392</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -17198,7 +17845,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -17206,7 +17853,7 @@
       <c r="G52" t="s">
         <v>380</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17214,7 +17861,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>490</v>
       </c>
     </row>
@@ -17222,7 +17869,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -17230,7 +17877,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -17238,7 +17885,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>484</v>
       </c>
     </row>
@@ -17246,7 +17893,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -17254,7 +17901,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -17262,7 +17909,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -17270,7 +17917,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -17278,7 +17925,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -17286,7 +17933,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -17294,7 +17941,7 @@
       <c r="G63" t="s">
         <v>393</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17302,7 +17949,7 @@
       <c r="G64" t="s">
         <v>394</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>463</v>
       </c>
     </row>
@@ -17310,7 +17957,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>517</v>
       </c>
     </row>
@@ -17318,7 +17965,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -17326,7 +17973,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>413</v>
       </c>
     </row>
@@ -17334,7 +17981,7 @@
       <c r="G68" t="s">
         <v>377</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>468</v>
       </c>
     </row>
@@ -17342,7 +17989,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -17350,7 +17997,7 @@
       <c r="G70" t="s">
         <v>435</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -17358,7 +18005,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -17366,7 +18013,7 @@
       <c r="G72" t="s">
         <v>436</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -17374,7 +18021,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -17382,7 +18029,7 @@
       <c r="G74" t="s">
         <v>552</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -17390,7 +18037,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>479</v>
       </c>
     </row>
@@ -17398,7 +18045,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>511</v>
       </c>
     </row>
@@ -17406,7 +18053,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17414,7 +18061,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -17422,7 +18069,7 @@
       <c r="G79" t="s">
         <v>454</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -17430,7 +18077,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>539</v>
       </c>
     </row>
@@ -17438,7 +18085,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -17446,7 +18093,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -17454,7 +18101,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17462,7 +18109,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>527</v>
       </c>
     </row>
@@ -17470,7 +18117,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17478,7 +18125,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>478</v>
       </c>
     </row>
@@ -17486,7 +18133,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -17494,7 +18141,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17502,7 +18149,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -17510,7 +18157,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -17518,7 +18165,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17526,7 +18173,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>461</v>
       </c>
     </row>
@@ -17534,7 +18181,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>462</v>
       </c>
     </row>
@@ -17542,172 +18189,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -53,7 +53,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12691" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14817" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1755,13 +1755,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="396" x14ac:knownFonts="1">
+  <fonts count="460" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4268,8 +4280,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="664">
+  <fills count="784">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8028,8 +8444,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -14835,6 +15931,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14842,7 +17066,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="486">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16079,52 +18303,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="636" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="636" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="639" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="639" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="642" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="642" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="645" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="645" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="651" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="651" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="654" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="654" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="657" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="657" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="657" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="657" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="666" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="669" fontId="398" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="672" fontId="399" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="675" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="402" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="681" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="684" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="687" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="687" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="696" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="699" fontId="414" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="702" fontId="415" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="705" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="418" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="711" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="714" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="717" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="717" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="726" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="729" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="732" fontId="431" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="735" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="434" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="741" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="744" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="747" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="747" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="756" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="759" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="765" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="771" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="774" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16905,7 +19321,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -16973,7 +19389,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -17032,7 +19448,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -17090,6 +19506,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>559</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -17143,6 +19562,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>560</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -17184,6 +19606,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>561</v>
+      </c>
       <c r="Q10" t="s">
         <v>459</v>
       </c>
@@ -17572,7 +19997,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>565</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -17589,7 +20014,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -17606,7 +20031,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -17623,7 +20048,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -17638,6 +20063,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -52,8 +52,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14817" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1767,13 +1767,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="460" x14ac:knownFonts="1">
+  <fonts count="476" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4684,8 +4696,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="784">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9124,8 +9237,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -17059,6 +17342,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17066,7 +17631,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18495,52 +19060,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="756" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="756" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="759" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="759" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="762" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="765" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="765" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="450" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="771" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="771" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="774" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="774" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="777" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="777" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="786" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="789" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="792" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="795" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="801" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="804" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19131,7 +19744,7 @@
         <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="E3" t="s">
         <v>482</v>
@@ -19214,7 +19827,7 @@
         <v>398</v>
       </c>
       <c r="D4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -19297,7 +19910,7 @@
         <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E5" t="s">
         <v>483</v>
@@ -19321,7 +19934,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -19367,6 +19980,9 @@
       <c r="B6" t="s">
         <v>400</v>
       </c>
+      <c r="D6" t="s">
+        <v>533</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -19389,7 +20005,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -19448,7 +20064,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -19507,7 +20123,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -19563,7 +20179,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -19607,7 +20223,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q10" t="s">
         <v>459</v>
@@ -19647,6 +20263,9 @@
       <c r="M11" t="s">
         <v>516</v>
       </c>
+      <c r="N11" t="s">
+        <v>560</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -19682,6 +20301,9 @@
       <c r="M12" t="s">
         <v>466</v>
       </c>
+      <c r="N12" t="s">
+        <v>561</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -19997,7 +20619,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15352" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15889" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1779,13 +1779,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="476" x14ac:knownFonts="1">
+  <fonts count="492" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4797,8 +4803,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="844">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9407,8 +9514,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -17624,6 +17901,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17631,7 +18190,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="518">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19108,52 +19667,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="786" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="786" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="789" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="789" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="792" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="792" fontId="463" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="795" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="795" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="466" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="801" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="801" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="804" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="804" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="807" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="807" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="816" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="819" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="822" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="825" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="831" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="834" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="837" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="837" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19538,7 +20145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19924,6 +20531,9 @@
       <c r="H5" t="s">
         <v>480</v>
       </c>
+      <c r="I5" t="s">
+        <v>570</v>
+      </c>
       <c r="J5" t="s">
         <v>353</v>
       </c>
@@ -20800,7 +21410,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>417</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40">
@@ -20808,7 +21418,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41">
@@ -20816,7 +21426,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -20824,7 +21434,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -20832,7 +21442,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -20840,7 +21450,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -20848,7 +21458,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -20856,7 +21466,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>467</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -20864,7 +21474,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48">
@@ -20872,7 +21482,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -20880,7 +21490,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -20888,7 +21498,7 @@
         <v>392</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -20896,7 +21506,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -20904,7 +21514,7 @@
         <v>380</v>
       </c>
       <c r="Y52" t="s">
-        <v>526</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -20912,7 +21522,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54">
@@ -20920,7 +21530,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55">
@@ -20928,7 +21538,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -20936,7 +21546,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>484</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -20944,7 +21554,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
@@ -20952,7 +21562,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -20960,7 +21570,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -20968,7 +21578,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -20976,7 +21586,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -20984,7 +21594,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -20992,7 +21602,7 @@
         <v>393</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -21000,7 +21610,7 @@
         <v>394</v>
       </c>
       <c r="Y64" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -21008,7 +21618,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
@@ -21016,7 +21626,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67">
@@ -21024,7 +21634,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -21032,7 +21642,7 @@
         <v>377</v>
       </c>
       <c r="Y68" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69">
@@ -21040,7 +21650,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
@@ -21048,7 +21658,7 @@
         <v>435</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -21056,7 +21666,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -21064,7 +21674,7 @@
         <v>436</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -21072,7 +21682,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -21080,7 +21690,7 @@
         <v>552</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -21088,7 +21698,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -21096,7 +21706,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77">
@@ -21104,7 +21714,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78">
@@ -21112,7 +21722,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -21120,7 +21730,7 @@
         <v>454</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -21128,7 +21738,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>539</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -21136,7 +21746,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82">
@@ -21144,7 +21754,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -21152,7 +21762,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -21160,7 +21770,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>527</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -21168,7 +21778,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86">
@@ -21176,7 +21786,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -21184,7 +21794,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88">
@@ -21192,7 +21802,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -21200,7 +21810,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -21208,7 +21818,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -21216,7 +21826,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -21224,7 +21834,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -21232,7 +21842,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94">
@@ -21240,171 +21850,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>546</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>554</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -25,13 +25,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -45,12 +45,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15889" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16436" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1785,13 +1785,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="492" x14ac:knownFonts="1">
+  <fonts count="508" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4904,8 +4937,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="844">
+  <fills count="871">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9684,8 +9818,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="875">
     <border>
       <left/>
       <right/>
@@ -18183,6 +18470,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18190,7 +18803,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="534">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19715,52 +20328,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="816" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="816" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="819" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="819" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="822" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="822" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="825" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="825" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="481" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="482" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="831" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="831" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="834" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="834" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="837" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="837" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="837" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="837" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="846" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="849" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="852" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="855" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="861" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="852" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="864" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="864" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20145,7 +20806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20667,6 +21328,9 @@
       <c r="H7" t="s">
         <v>472</v>
       </c>
+      <c r="J7" t="s">
+        <v>574</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -20707,7 +21371,7 @@
         <v>452</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8">
@@ -20763,7 +21427,7 @@
         <v>453</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -20810,7 +21474,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10">
@@ -20851,7 +21515,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>518</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -20889,7 +21553,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>535</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -20909,7 +21573,7 @@
         <v>414</v>
       </c>
       <c r="M12" t="s">
-        <v>466</v>
+        <v>575</v>
       </c>
       <c r="N12" t="s">
         <v>561</v>
@@ -20927,7 +21591,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>536</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -20947,7 +21611,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -20962,7 +21626,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14">
@@ -20982,7 +21646,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>515</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -20997,7 +21661,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15">
@@ -21014,7 +21678,7 @@
         <v>550</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>543</v>
@@ -21029,7 +21693,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16">
@@ -21046,7 +21710,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>544</v>
@@ -21061,7 +21725,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17">
@@ -21077,6 +21741,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>545</v>
       </c>
@@ -21084,7 +21751,7 @@
         <v>486</v>
       </c>
       <c r="AD17" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18">
@@ -21104,7 +21771,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19">
@@ -21124,7 +21791,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20">
@@ -21144,7 +21811,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21">
@@ -21164,7 +21831,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22">
@@ -21183,6 +21850,9 @@
       <c r="Y22" t="s">
         <v>528</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -21200,6 +21870,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -21217,6 +21890,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -21234,6 +21910,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -21251,6 +21930,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -21268,6 +21950,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -21498,7 +22183,7 @@
         <v>392</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51">
@@ -21506,7 +22191,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -21514,7 +22199,7 @@
         <v>380</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -21522,7 +22207,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>526</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -21530,7 +22215,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
@@ -21538,7 +22223,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
@@ -21546,7 +22231,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -21554,7 +22239,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -21562,7 +22247,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59">
@@ -21570,7 +22255,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -21578,7 +22263,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -21586,7 +22271,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -21594,7 +22279,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -21602,7 +22287,7 @@
         <v>393</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -21610,7 +22295,7 @@
         <v>394</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -21618,7 +22303,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -21626,7 +22311,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>517</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -21634,15 +22319,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>377</v>
+        <v>572</v>
       </c>
       <c r="Y68" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -21650,7 +22335,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70">
@@ -21658,7 +22343,7 @@
         <v>435</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71">
@@ -21666,7 +22351,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -21674,7 +22359,7 @@
         <v>436</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -21682,7 +22367,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -21690,7 +22375,7 @@
         <v>552</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -21698,7 +22383,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -21706,7 +22391,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>479</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -21714,7 +22399,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78">
@@ -21722,7 +22407,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79">
@@ -21730,7 +22415,7 @@
         <v>454</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -21738,7 +22423,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -21746,7 +22431,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>539</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -21754,7 +22439,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83">
@@ -21762,7 +22447,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -21770,256 +22455,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>573</v>
       </c>
       <c r="Y85" t="s">
-        <v>527</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>478</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>461</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>546</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>554</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>407</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>469</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -44,16 +44,17 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16436" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16987" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1818,13 +1819,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="508" x14ac:knownFonts="1">
+  <fonts count="524" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5038,8 +5048,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="871">
+  <fills count="898">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9971,8 +10082,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="875">
+  <borders count="907">
     <border>
       <left/>
       <right/>
@@ -18796,6 +19060,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18803,7 +19393,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="534">
+  <cellXfs count="550">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20376,52 +20966,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="846" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="846" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="849" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="849" fontId="494" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="852" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="852" fontId="495" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="855" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="855" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="497" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="498" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="861" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="861" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="852" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="852" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="864" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="864" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="864" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="864" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="873" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="876" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="879" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="882" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="888" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="879" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="891" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="891" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20806,7 +21444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20891,21 +21529,24 @@
         <v>421</v>
       </c>
       <c r="Y1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>448</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20983,21 +21624,24 @@
         <v>422</v>
       </c>
       <c r="Y2" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>458</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -21068,22 +21712,22 @@
       <c r="X3" t="s">
         <v>423</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>388</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21151,22 +21795,22 @@
       <c r="X4" t="s">
         <v>424</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>378</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>449</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -21225,22 +21869,22 @@
       <c r="W5" t="s">
         <v>383</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>379</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>450</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -21293,22 +21937,22 @@
       <c r="W6" t="s">
         <v>385</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>470</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>451</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -21355,22 +21999,22 @@
       <c r="W7" t="s">
         <v>384</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>471</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>452</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -21411,22 +22055,22 @@
       <c r="W8" t="s">
         <v>386</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>453</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -21467,13 +22111,13 @@
       <c r="W9" t="s">
         <v>387</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -21508,13 +22152,13 @@
       <c r="T10" t="s">
         <v>434</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21546,13 +22190,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21584,13 +22228,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21619,13 +22263,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>518</v>
       </c>
     </row>
@@ -21654,13 +22298,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>535</v>
       </c>
     </row>
@@ -21686,13 +22330,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>536</v>
       </c>
     </row>
@@ -21718,13 +22362,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>540</v>
       </c>
     </row>
@@ -21744,13 +22388,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>545</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21767,10 +22411,10 @@
       <c r="K18" t="s">
         <v>481</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>519</v>
       </c>
     </row>
@@ -21787,10 +22431,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>537</v>
       </c>
     </row>
@@ -21807,10 +22451,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>538</v>
       </c>
     </row>
@@ -21827,10 +22471,10 @@
       <c r="K21" t="s">
         <v>404</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>542</v>
       </c>
     </row>
@@ -21839,7 +22483,7 @@
         <v>439</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>584</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -21847,10 +22491,10 @@
       <c r="K22" t="s">
         <v>514</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>528</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21859,7 +22503,7 @@
         <v>381</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -21867,10 +22511,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -21879,7 +22523,7 @@
         <v>421</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -21887,19 +22531,19 @@
       <c r="K24" t="s">
         <v>416</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>583</v>
       </c>
       <c r="E25" t="s">
-        <v>473</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -21907,19 +22551,19 @@
       <c r="K25" t="s">
         <v>567</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>473</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -21927,19 +22571,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -21947,19 +22591,19 @@
       <c r="K27" t="s">
         <v>465</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -21967,16 +22611,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -21984,117 +22628,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>448</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>444</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>571</v>
       </c>
     </row>
@@ -22102,7 +22752,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -22110,7 +22760,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22118,7 +22768,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22126,7 +22776,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22134,7 +22784,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22142,7 +22792,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22150,7 +22800,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22158,7 +22808,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>467</v>
       </c>
     </row>
@@ -22166,7 +22816,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -22174,7 +22824,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22182,7 +22832,7 @@
       <c r="G50" t="s">
         <v>392</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>576</v>
       </c>
     </row>
@@ -22190,7 +22840,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22198,7 +22848,7 @@
       <c r="G52" t="s">
         <v>380</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22206,7 +22856,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22214,7 +22864,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -22222,7 +22872,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>490</v>
       </c>
     </row>
@@ -22230,7 +22880,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22238,7 +22888,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -22246,7 +22896,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>484</v>
       </c>
     </row>
@@ -22254,7 +22904,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22262,7 +22912,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22270,7 +22920,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22278,7 +22928,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22286,7 +22936,7 @@
       <c r="G63" t="s">
         <v>393</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22294,7 +22944,7 @@
       <c r="G64" t="s">
         <v>394</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22302,7 +22952,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22310,7 +22960,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>463</v>
       </c>
     </row>
@@ -22318,7 +22968,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>517</v>
       </c>
     </row>
@@ -22326,7 +22976,7 @@
       <c r="G68" t="s">
         <v>572</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -22334,7 +22984,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>413</v>
       </c>
     </row>
@@ -22342,7 +22992,7 @@
       <c r="G70" t="s">
         <v>435</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>468</v>
       </c>
     </row>
@@ -22350,7 +23000,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22358,7 +23008,7 @@
       <c r="G72" t="s">
         <v>436</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -22366,7 +23016,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -22374,7 +23024,7 @@
       <c r="G74" t="s">
         <v>552</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -22382,7 +23032,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -22390,7 +23040,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -22398,7 +23048,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>479</v>
       </c>
     </row>
@@ -22406,7 +23056,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>511</v>
       </c>
     </row>
@@ -22414,7 +23064,7 @@
       <c r="G79" t="s">
         <v>454</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22422,7 +23072,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -22430,7 +23080,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -22438,7 +23088,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>539</v>
       </c>
     </row>
@@ -22446,7 +23096,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -22454,7 +23104,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -22462,7 +23112,7 @@
       <c r="G85" t="s">
         <v>573</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -22470,7 +23120,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>527</v>
       </c>
     </row>
@@ -22478,7 +23128,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -22486,7 +23136,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>478</v>
       </c>
     </row>
@@ -22494,7 +23144,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -22502,7 +23152,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -22510,7 +23160,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22518,7 +23168,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -22526,7 +23176,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -22534,7 +23184,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>461</v>
       </c>
     </row>
@@ -22542,177 +23192,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16987" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18093" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1828,13 +1828,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="524" x14ac:knownFonts="1">
+  <fonts count="556" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5149,8 +5155,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="898">
+  <fills count="952">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10235,8 +10443,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="907">
+  <borders count="971">
     <border>
       <left/>
       <right/>
@@ -19386,6 +19900,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19393,7 +20559,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="550">
+  <cellXfs count="582">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21014,52 +22180,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="873" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="873" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="876" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="876" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="879" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="879" fontId="511" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="882" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="882" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="513" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="514" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="888" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="888" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="879" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="879" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="891" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="891" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="891" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="891" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="900" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="903" fontId="526" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="906" fontId="527" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="909" fontId="528" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="529" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="530" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="915" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="906" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="918" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="918" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="927" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="930" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="933" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="936" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="942" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="945" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="945" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22766,7 +24028,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>586</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -22774,7 +24036,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -22782,7 +24044,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -22790,7 +24052,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -22798,7 +24060,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -22806,7 +24068,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>467</v>
@@ -22814,7 +24076,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -22822,7 +24084,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -22830,7 +24092,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>576</v>
@@ -22838,7 +24100,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -22846,7 +24108,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -22854,7 +24116,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -22862,7 +24124,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>526</v>
@@ -22870,7 +24132,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>490</v>
@@ -22878,7 +24140,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -22886,7 +24148,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -22894,7 +24156,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>587</v>
       </c>
       <c r="Z58" t="s">
         <v>484</v>
@@ -22902,7 +24164,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -22910,7 +24172,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -22918,7 +24180,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -22926,7 +24188,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -22934,7 +24196,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -22942,7 +24204,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -22950,7 +24212,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -22958,7 +24220,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="Z66" t="s">
         <v>463</v>
@@ -22966,7 +24228,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>517</v>
@@ -22974,7 +24236,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>572</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -22982,7 +24244,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>413</v>
@@ -22990,7 +24252,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>435</v>
+        <v>572</v>
       </c>
       <c r="Z70" t="s">
         <v>468</v>
@@ -22998,7 +24260,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -23006,7 +24268,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -23014,7 +24276,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -23022,7 +24284,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>552</v>
+        <v>436</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -23030,7 +24292,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -23038,7 +24300,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>552</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -23046,7 +24308,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>479</v>
@@ -23054,7 +24316,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>511</v>
@@ -23062,7 +24324,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -23070,7 +24332,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -23078,7 +24340,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -23086,7 +24348,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>539</v>
@@ -23094,7 +24356,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -23102,7 +24364,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -23110,7 +24372,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>573</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -23118,7 +24380,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>527</v>
@@ -23126,7 +24388,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>573</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -23134,7 +24396,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>478</v>
@@ -23142,7 +24404,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -23150,7 +24412,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -23158,7 +24420,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -23166,7 +24428,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -23174,7 +24436,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -23182,7 +24444,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>461</v>
@@ -23190,18 +24452,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -31,7 +31,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,13 +44,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18093" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18644" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1834,13 +1834,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="556" x14ac:knownFonts="1">
+  <fonts count="572" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5357,8 +5360,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="952">
+  <fills count="979">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10749,8 +10853,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="971">
+  <borders count="1003">
     <border>
       <left/>
       <right/>
@@ -20552,6 +20809,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20559,7 +21142,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="582">
+  <cellXfs count="598">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22276,52 +22859,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="927" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="927" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="930" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="930" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="933" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="933" fontId="543" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="936" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="936" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="545" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="546" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="942" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="942" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="945" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="945" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="945" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="945" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="954" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="957" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="960" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="963" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="969" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="972" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="972" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22706,7 +23337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22791,24 +23422,21 @@
         <v>421</v>
       </c>
       <c r="Y1" t="s">
-        <v>583</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
       <c r="AD1" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22886,24 +23514,21 @@
         <v>422</v>
       </c>
       <c r="Y2" t="s">
-        <v>585</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>458</v>
       </c>
       <c r="AD2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -22974,22 +23599,22 @@
       <c r="X3" t="s">
         <v>423</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="AC3" t="s">
-        <v>388</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23057,22 +23682,22 @@
       <c r="X4" t="s">
         <v>424</v>
       </c>
+      <c r="Y4" t="s">
+        <v>378</v>
+      </c>
       <c r="Z4" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>449</v>
       </c>
       <c r="AD4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -23131,22 +23756,22 @@
       <c r="W5" t="s">
         <v>383</v>
       </c>
+      <c r="Y5" t="s">
+        <v>379</v>
+      </c>
       <c r="Z5" t="s">
-        <v>379</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>450</v>
       </c>
       <c r="AD5" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -23199,22 +23824,22 @@
       <c r="W6" t="s">
         <v>385</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="AA6" t="s">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
       <c r="AD6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -23261,22 +23886,22 @@
       <c r="W7" t="s">
         <v>384</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>471</v>
       </c>
       <c r="AA7" t="s">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>452</v>
       </c>
       <c r="AD7" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE7" t="s">
         <v>577</v>
       </c>
     </row>
@@ -23317,22 +23942,22 @@
       <c r="W8" t="s">
         <v>386</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>453</v>
       </c>
       <c r="AD8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE8" t="s">
         <v>578</v>
       </c>
     </row>
@@ -23373,13 +23998,13 @@
       <c r="W9" t="s">
         <v>387</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>579</v>
       </c>
     </row>
@@ -23414,13 +24039,13 @@
       <c r="T10" t="s">
         <v>434</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -23452,13 +24077,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -23490,13 +24115,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23525,13 +24150,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>518</v>
       </c>
     </row>
@@ -23560,13 +24185,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>535</v>
       </c>
     </row>
@@ -23592,13 +24217,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>536</v>
       </c>
     </row>
@@ -23616,7 +24241,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="Q16" t="s">
         <v>544</v>
@@ -23624,13 +24249,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>540</v>
       </c>
     </row>
@@ -23648,15 +24273,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>545</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>541</v>
       </c>
     </row>
@@ -23673,10 +24298,13 @@
       <c r="K18" t="s">
         <v>481</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>519</v>
       </c>
     </row>
@@ -23693,10 +24321,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>537</v>
       </c>
     </row>
@@ -23713,10 +24341,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>538</v>
       </c>
     </row>
@@ -23733,10 +24361,10 @@
       <c r="K21" t="s">
         <v>404</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>542</v>
       </c>
     </row>
@@ -23753,10 +24381,10 @@
       <c r="K22" t="s">
         <v>514</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>528</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -23773,10 +24401,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>580</v>
       </c>
     </row>
@@ -23793,16 +24421,16 @@
       <c r="K24" t="s">
         <v>416</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -23813,16 +24441,16 @@
       <c r="K25" t="s">
         <v>567</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>473</v>
@@ -23833,16 +24461,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -23853,16 +24481,16 @@
       <c r="K27" t="s">
         <v>465</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -23873,13 +24501,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
       <c r="E29" t="s">
         <v>512</v>
@@ -23890,13 +24518,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>513</v>
@@ -23904,21 +24532,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>444</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23929,7 +24554,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23940,7 +24565,7 @@
       <c r="G33" t="s">
         <v>551</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23951,7 +24576,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23962,7 +24587,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23973,7 +24598,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23984,7 +24609,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -23995,7 +24620,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -24006,7 +24631,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>571</v>
       </c>
     </row>
@@ -24014,7 +24639,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -24022,7 +24647,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -24030,7 +24655,7 @@
       <c r="G42" t="s">
         <v>586</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -24038,7 +24663,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -24046,7 +24671,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -24054,7 +24679,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24062,7 +24687,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -24070,7 +24695,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>467</v>
       </c>
     </row>
@@ -24078,7 +24703,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -24086,7 +24711,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -24094,7 +24719,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>576</v>
       </c>
     </row>
@@ -24102,7 +24727,7 @@
       <c r="G51" t="s">
         <v>392</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -24110,7 +24735,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -24118,7 +24743,7 @@
       <c r="G53" t="s">
         <v>380</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24126,7 +24751,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -24134,7 +24759,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>490</v>
       </c>
     </row>
@@ -24142,7 +24767,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -24150,7 +24775,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -24158,7 +24783,7 @@
       <c r="G58" t="s">
         <v>587</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>484</v>
       </c>
     </row>
@@ -24166,7 +24791,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -24174,7 +24799,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -24182,7 +24807,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -24190,7 +24815,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24198,7 +24823,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -24206,7 +24831,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -24214,7 +24839,7 @@
       <c r="G65" t="s">
         <v>393</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -24222,7 +24847,7 @@
       <c r="G66" t="s">
         <v>394</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>463</v>
       </c>
     </row>
@@ -24230,7 +24855,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>517</v>
       </c>
     </row>
@@ -24238,7 +24863,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -24246,7 +24871,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>413</v>
       </c>
     </row>
@@ -24254,7 +24879,7 @@
       <c r="G70" t="s">
         <v>572</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>468</v>
       </c>
     </row>
@@ -24262,7 +24887,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -24270,7 +24895,7 @@
       <c r="G72" t="s">
         <v>435</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -24278,7 +24903,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -24286,7 +24911,7 @@
       <c r="G74" t="s">
         <v>436</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -24294,7 +24919,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -24302,7 +24927,7 @@
       <c r="G76" t="s">
         <v>552</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -24310,7 +24935,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>479</v>
       </c>
     </row>
@@ -24318,7 +24943,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>511</v>
       </c>
     </row>
@@ -24326,7 +24951,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -24334,7 +24959,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -24342,7 +24967,7 @@
       <c r="G81" t="s">
         <v>454</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -24350,7 +24975,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>539</v>
       </c>
     </row>
@@ -24358,7 +24983,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -24366,7 +24991,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -24374,7 +24999,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -24382,7 +25007,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>527</v>
       </c>
     </row>
@@ -24390,7 +25015,7 @@
       <c r="G87" t="s">
         <v>573</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -24398,7 +25023,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>478</v>
       </c>
     </row>
@@ -24406,7 +25031,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -24414,7 +25039,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -24422,7 +25047,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24430,7 +25055,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -24438,7 +25063,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -24446,7 +25071,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>461</v>
       </c>
     </row>
@@ -24454,7 +25079,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>462</v>
       </c>
     </row>
@@ -24462,7 +25087,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -24470,167 +25095,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18644" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20307" uniqueCount="593">
   <si>
     <t>description</t>
   </si>
@@ -1837,13 +1837,25 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="572" x14ac:knownFonts="1">
+  <fonts count="620" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5461,8 +5473,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="979">
+  <fills count="1060">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11006,8 +11321,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1003">
+  <borders count="1099">
     <border>
       <left/>
       <right/>
@@ -21135,6 +21909,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21142,7 +22894,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="598">
+  <cellXfs count="646">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22907,52 +24659,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="954" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="954" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="957" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="957" fontId="558" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="960" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="960" fontId="559" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="963" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="963" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="561" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="562" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="969" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="969" fontId="564" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="565" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="972" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="972" fontId="566" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="567" fillId="972" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="972" fontId="567" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="568" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="569" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="570" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="984" fontId="574" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="987" fontId="575" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="990" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="577" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="993" fontId="578" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="996" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="987" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="999" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="999" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="1008" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1011" fontId="590" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1014" fontId="591" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1017" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="593" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1020" fontId="594" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1023" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1014" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1035" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1038" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1044" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1041" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1053" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1053" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23337,7 +25233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24422,7 +26318,7 @@
         <v>416</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>589</v>
       </c>
       <c r="AD24" t="s">
         <v>581</v>
@@ -24442,7 +26338,7 @@
         <v>567</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>582</v>
@@ -24462,7 +26358,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -24482,7 +26378,7 @@
         <v>465</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -24502,7 +26398,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -24519,7 +26415,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -24533,7 +26429,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -24544,7 +26440,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -24555,7 +26451,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -24566,7 +26462,7 @@
         <v>551</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -24577,7 +26473,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35">
@@ -24588,7 +26484,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -24599,7 +26495,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -24610,7 +26506,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -24621,7 +26517,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>460</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -24632,7 +26528,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>571</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -24640,7 +26536,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41">
@@ -24648,7 +26544,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42">
@@ -24656,7 +26552,7 @@
         <v>586</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43">
@@ -24664,7 +26560,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -24672,7 +26568,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -24680,7 +26576,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -24688,7 +26584,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -24696,7 +26592,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>467</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -24704,7 +26600,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -24712,7 +26608,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
@@ -24720,7 +26616,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>576</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -24728,7 +26624,7 @@
         <v>392</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -24736,7 +26632,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53">
@@ -24744,7 +26640,7 @@
         <v>380</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -24752,7 +26648,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>526</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -24760,7 +26656,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>490</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -24768,7 +26664,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
@@ -24776,7 +26672,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
@@ -24784,7 +26680,7 @@
         <v>587</v>
       </c>
       <c r="Y58" t="s">
-        <v>484</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -24792,7 +26688,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -24800,7 +26696,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61">
@@ -24808,7 +26704,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -24816,7 +26712,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -24824,7 +26720,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -24832,7 +26728,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -24840,7 +26736,7 @@
         <v>393</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -24848,7 +26744,7 @@
         <v>394</v>
       </c>
       <c r="Y66" t="s">
-        <v>463</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -24856,7 +26752,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>517</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -24864,7 +26760,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69">
@@ -24872,7 +26768,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>413</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
@@ -24880,7 +26776,7 @@
         <v>572</v>
       </c>
       <c r="Y70" t="s">
-        <v>468</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -24888,7 +26784,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72">
@@ -24896,7 +26792,7 @@
         <v>435</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73">
@@ -24904,7 +26800,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -24912,7 +26808,7 @@
         <v>436</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -24920,7 +26816,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -24928,7 +26824,7 @@
         <v>552</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -24936,7 +26832,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>479</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -24944,7 +26840,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -24952,7 +26848,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80">
@@ -24960,7 +26856,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81">
@@ -24968,7 +26864,7 @@
         <v>454</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -24976,7 +26872,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>539</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -24984,7 +26880,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -24992,7 +26888,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85">
@@ -25000,7 +26896,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -25008,7 +26904,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>527</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -25016,7 +26912,7 @@
         <v>573</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -25024,7 +26920,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89">
@@ -25032,7 +26928,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -25040,7 +26936,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91">
@@ -25048,7 +26944,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -25056,7 +26952,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -25064,7 +26960,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94">
@@ -25072,7 +26968,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>461</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -25080,7 +26976,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>462</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -25088,7 +26984,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -25096,166 +26992,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>546</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>553</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>407</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>469</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20307" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20863" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1849,13 +1849,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="620" x14ac:knownFonts="1">
+  <fonts count="636" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5776,8 +5782,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1060">
+  <fills count="1087">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11780,8 +11887,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1099">
+  <borders count="1131">
     <border>
       <left/>
       <right/>
@@ -22887,6 +23147,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22894,7 +23480,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="646">
+  <cellXfs count="662">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24803,52 +25389,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1035" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1035" fontId="604" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1038" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1038" fontId="606" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="607" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1044" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1044" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="609" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="610" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1041" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1041" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1053" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1053" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1053" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1053" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1068" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1071" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1077" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1068" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1080" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1080" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25614,7 +26248,7 @@
         <v>464</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>593</v>
       </c>
       <c r="H5" t="s">
         <v>480</v>
@@ -25688,7 +26322,7 @@
         <v>547</v>
       </c>
       <c r="G6" t="s">
-        <v>412</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>476</v>
@@ -25750,7 +26384,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
         <v>472</v>
@@ -25812,7 +26446,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -25868,7 +26502,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -25912,7 +26546,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>477</v>
@@ -25953,7 +26587,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -25991,7 +26625,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -26029,7 +26663,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -26064,7 +26698,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -26099,7 +26733,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>550</v>
@@ -26131,7 +26765,7 @@
         <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -26163,7 +26797,7 @@
         <v>410</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -26189,7 +26823,7 @@
         <v>437</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>481</v>
@@ -26212,7 +26846,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -26232,7 +26866,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -26252,7 +26886,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>404</v>
@@ -26272,7 +26906,7 @@
         <v>584</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>514</v>
@@ -26292,7 +26926,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -26312,7 +26946,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>416</v>
@@ -26332,7 +26966,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>567</v>
@@ -26352,7 +26986,7 @@
         <v>473</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -26372,7 +27006,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>465</v>
@@ -26392,7 +27026,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -26409,7 +27043,7 @@
         <v>512</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -26426,7 +27060,7 @@
         <v>513</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -26437,7 +27071,7 @@
         <v>444</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -26448,7 +27082,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -26459,7 +27093,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>551</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -26470,7 +27104,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>551</v>
       </c>
       <c r="Y34" t="s">
         <v>590</v>
@@ -26481,7 +27115,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -26492,7 +27126,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -26503,7 +27137,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -26514,7 +27148,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -26525,7 +27159,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -26533,7 +27167,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>460</v>
@@ -26541,7 +27175,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>571</v>
@@ -26549,7 +27183,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>586</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>417</v>
@@ -26557,7 +27191,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>586</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -26565,7 +27199,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -26573,7 +27207,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -26581,7 +27215,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -26589,7 +27223,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -26597,7 +27231,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -26605,7 +27239,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>467</v>
@@ -26613,7 +27247,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -26621,7 +27255,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -26629,7 +27263,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="Y52" t="s">
         <v>576</v>
@@ -26637,7 +27271,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -26645,7 +27279,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -26653,7 +27287,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -26661,7 +27295,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>526</v>
@@ -26669,7 +27303,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>490</v>
@@ -26677,7 +27311,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>587</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -26685,7 +27319,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>587</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -26693,7 +27327,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>484</v>
@@ -26701,7 +27335,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -26709,7 +27343,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -26717,7 +27351,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -26725,7 +27359,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -26733,7 +27367,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>393</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -26741,7 +27375,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -26749,7 +27383,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -26757,7 +27391,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>463</v>
@@ -26765,7 +27399,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>517</v>
@@ -26773,7 +27407,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>572</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -26781,7 +27415,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>572</v>
       </c>
       <c r="Y71" t="s">
         <v>413</v>
@@ -26789,7 +27423,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>468</v>
@@ -26797,7 +27431,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -26805,7 +27439,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>436</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -26813,7 +27447,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>436</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -26821,7 +27455,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>552</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -26829,7 +27463,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>552</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -26837,7 +27471,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -26845,7 +27479,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>479</v>
@@ -26853,7 +27487,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>511</v>
@@ -26861,7 +27495,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>454</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -26869,7 +27503,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -26877,7 +27511,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -26885,7 +27519,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>539</v>
@@ -26893,7 +27527,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -26901,7 +27535,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -26909,7 +27543,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>573</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -26917,7 +27551,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>573</v>
       </c>
       <c r="Y88" t="s">
         <v>527</v>
@@ -26925,7 +27559,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -26933,7 +27567,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>478</v>
@@ -26941,7 +27575,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -26949,7 +27583,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -26957,15 +27591,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -26973,7 +27607,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -26981,7 +27615,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -26989,13 +27623,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>462</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/image-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/image-showcase.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <d